--- a/Results/orientation-change-results.xlsx
+++ b/Results/orientation-change-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B8377E-A10D-7A48-A451-1F5458846C03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B28EF-FC19-FB43-B8D8-684A7161F1A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{B9D9EF45-235E-C34A-AB63-58AF9355DAFF}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="8" xr2:uid="{B9D9EF45-235E-C34A-AB63-58AF9355DAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="shoppinglist" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="counter" sheetId="5" r:id="rId5"/>
     <sheet name="simplydo" sheetId="6" r:id="rId6"/>
     <sheet name="beecount" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="total" sheetId="8" r:id="rId8"/>
+    <sheet name="data" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="525">
   <si>
     <t>Class</t>
   </si>
@@ -1970,7 +1971,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$B$1</c:f>
+              <c:f>total!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2049,7 +2050,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:f>total!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2075,7 +2076,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$2:$B$7</c:f>
+              <c:f>total!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2111,7 +2112,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$C$1</c:f>
+              <c:f>total!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2191,7 +2192,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:f>total!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2217,7 +2218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$C$2:$C$7</c:f>
+              <c:f>total!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2484,7 +2485,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$D$1</c:f>
+              <c:f>total!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2563,7 +2564,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:f>total!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2589,7 +2590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$D$2:$D$7</c:f>
+              <c:f>total!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3926,6 +3927,7 @@
       <sheetName val="editor"/>
       <sheetName val="primary"/>
       <sheetName val="total"/>
+      <sheetName val="data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4032,6 +4034,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4337,7 +4340,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5160,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>81</v>
@@ -5298,6 +5301,12 @@
       </c>
       <c r="B61">
         <v>1</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5377,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FE8BF7-D5EA-C143-8EBF-D18AC9BE7C96}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6424,7 +6433,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+      <selection activeCell="B2" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7471,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8AF8BE-ACA2-2B42-A6EA-447D1FC32BBB}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8518,8 +8527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20488D0-4FF5-9844-98F2-3A0393E8E76D}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9565,8 +9574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6568B7-B5AB-9149-9A66-0DAE535D2212}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10612,8 +10621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220DE8E-F42C-C349-BD85-D7CA51F8F176}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11658,7 +11667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F1AD03-D1B7-4E41-BEB1-795D8AFC49AC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -11804,4 +11813,4870 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA676A-0CA7-8D44-B7DC-49DBAB8C2710}">
+  <dimension ref="A1:C481"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:C421"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="10" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>6</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>6</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="12">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="12">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="12">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="12">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" s="12">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" s="12">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="12">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12">
+        <v>6</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="12">
+        <v>6</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="12">
+        <v>6</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" s="12">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="12">
+        <v>6</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="12">
+        <v>6</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" s="9">
+        <v>3</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" s="9">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" s="9">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" s="9">
+        <v>3</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" s="9">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" s="9">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="9">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" s="9">
+        <v>3</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" s="9">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" s="9">
+        <v>3</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" s="9">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" s="9">
+        <v>1</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" s="9">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="9">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" s="9">
+        <v>6</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" s="9">
+        <v>6</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" s="9">
+        <v>6</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" s="9">
+        <v>6</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" s="9">
+        <v>6</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" s="9">
+        <v>6</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="9">
+        <v>6</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" s="9">
+        <v>6</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" s="9">
+        <v>6</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" s="9">
+        <v>6</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92" s="9">
+        <v>3</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" s="9">
+        <v>3</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94" s="11">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95" s="11">
+        <v>3</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96" s="11">
+        <v>3</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97" s="11">
+        <v>3</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" s="12">
+        <v>3</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99" s="12">
+        <v>3</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100" s="12">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101" s="12">
+        <v>3</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" s="12">
+        <v>6</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" s="12">
+        <v>6</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="12">
+        <v>6</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" s="12">
+        <v>6</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106" s="12">
+        <v>6</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" s="12">
+        <v>6</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" s="12">
+        <v>6</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" s="12">
+        <v>6</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110" s="12">
+        <v>6</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111" s="12">
+        <v>6</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" s="12">
+        <v>1</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" s="12">
+        <v>1</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" s="12">
+        <v>1</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" s="12">
+        <v>1</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116" s="12">
+        <v>1</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" s="12">
+        <v>1</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" s="12">
+        <v>1</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" s="12">
+        <v>1</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" s="12">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" s="12">
+        <v>1</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" s="9">
+        <v>3</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" s="9">
+        <v>3</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" s="9">
+        <v>3</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125" s="9">
+        <v>3</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126" s="9">
+        <v>3</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" s="9">
+        <v>3</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" s="9">
+        <v>3</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="9">
+        <v>3</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" s="9">
+        <v>3</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" s="9">
+        <v>3</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" s="9">
+        <v>1</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" s="9">
+        <v>1</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="17">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" s="9">
+        <v>1</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" s="9">
+        <v>1</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136" s="9">
+        <v>1</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" s="9">
+        <v>1</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="17">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" s="9">
+        <v>1</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="17">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139" s="9">
+        <v>1</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="17">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" s="9">
+        <v>1</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" s="9">
+        <v>1</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="17">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" s="9">
+        <v>6</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="17">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" s="9">
+        <v>6</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="17">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144" s="9">
+        <v>6</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="17">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" s="9">
+        <v>6</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="17">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" s="9">
+        <v>6</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="17">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" s="9">
+        <v>6</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="17">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" s="9">
+        <v>6</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="17">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" s="9">
+        <v>6</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="17">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150" s="9">
+        <v>6</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="17">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151" s="9">
+        <v>6</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="17">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" s="9">
+        <v>3</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="17">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" s="9">
+        <v>3</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="17">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" s="11">
+        <v>3</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="17">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" s="11">
+        <v>3</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="17">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156" s="11">
+        <v>3</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="17">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" s="11">
+        <v>3</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="17">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" s="12">
+        <v>3</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="17">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159" s="12">
+        <v>3</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="17">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" s="12">
+        <v>3</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="17">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" s="12">
+        <v>3</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="17">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" s="12">
+        <v>6</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="17">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" s="12">
+        <v>6</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="17">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164" s="12">
+        <v>6</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="17">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" s="12">
+        <v>6</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="17">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" s="12">
+        <v>6</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="17">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" s="12">
+        <v>6</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="17">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" s="12">
+        <v>6</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="17">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" s="12">
+        <v>6</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="17">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170" s="12">
+        <v>6</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="17">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171" s="12">
+        <v>6</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="17">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" s="12">
+        <v>1</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="17">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173" s="12">
+        <v>1</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="17">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174" s="12">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="17">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" s="12">
+        <v>1</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="17">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" s="12">
+        <v>1</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="17">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" s="12">
+        <v>1</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="17">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" s="12">
+        <v>1</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="17">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="12">
+        <v>1</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="17">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="12">
+        <v>1</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="17">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" s="12">
+        <v>1</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="17">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" s="9">
+        <v>3</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="17">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183" s="9">
+        <v>3</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="17">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184" s="9">
+        <v>3</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185" s="9">
+        <v>3</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="17">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" s="9">
+        <v>3</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="17">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" s="9">
+        <v>3</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="17">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" s="9">
+        <v>3</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="17">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" s="9">
+        <v>3</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="17">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" s="9">
+        <v>3</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="17">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" s="9">
+        <v>3</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="17">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192" s="9">
+        <v>1</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="17">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193" s="9">
+        <v>1</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="17">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194" s="9">
+        <v>1</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="17">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195" s="9">
+        <v>1</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196" s="9">
+        <v>1</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="17">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" s="9">
+        <v>1</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="17">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" s="9">
+        <v>1</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="17">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" s="9">
+        <v>1</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="17">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="17">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201" s="9">
+        <v>1</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="9">
+        <v>6</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="17">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" s="9">
+        <v>6</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204" s="9">
+        <v>6</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="17">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="9">
+        <v>6</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="17">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" s="9">
+        <v>6</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="17">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" s="9">
+        <v>6</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="17">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" s="9">
+        <v>6</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="17">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" s="9">
+        <v>6</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="17">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" s="9">
+        <v>6</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="17">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" s="9">
+        <v>6</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="17">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" s="9">
+        <v>3</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="17">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" s="9">
+        <v>3</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="17">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214" s="11">
+        <v>3</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="17">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215" s="11">
+        <v>3</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" s="11">
+        <v>3</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="17">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" s="11">
+        <v>3</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="17">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" s="12">
+        <v>3</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="17">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" s="12">
+        <v>3</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="17">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" s="12">
+        <v>3</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="17">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" s="12">
+        <v>3</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="17">
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222" s="12">
+        <v>6</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="17">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" s="12">
+        <v>6</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="17">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="17">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225" s="12">
+        <v>6</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="17">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" s="12">
+        <v>6</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="17">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" s="12">
+        <v>6</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="17">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228" s="12">
+        <v>6</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="17">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229" s="12">
+        <v>6</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="17">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230" s="12">
+        <v>6</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="17">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" s="12">
+        <v>6</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="17">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232" s="12">
+        <v>1</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="17">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233" s="12">
+        <v>1</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="17">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234" s="12">
+        <v>1</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="17">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235" s="12">
+        <v>1</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="17">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236" s="12">
+        <v>1</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="17">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" s="12">
+        <v>1</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="17">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238" s="12">
+        <v>1</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="17">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" s="12">
+        <v>1</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="17">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240" s="12">
+        <v>1</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="17">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241" s="12">
+        <v>1</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="17">
+      <c r="A242" s="6">
+        <v>1</v>
+      </c>
+      <c r="B242" s="9">
+        <v>3</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="17">
+      <c r="A243" s="6">
+        <v>1</v>
+      </c>
+      <c r="B243" s="9">
+        <v>3</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="17">
+      <c r="A244" s="6">
+        <v>1</v>
+      </c>
+      <c r="B244" s="9">
+        <v>3</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="17">
+      <c r="A245" s="6">
+        <v>0</v>
+      </c>
+      <c r="B245" s="9">
+        <v>3</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="17">
+      <c r="A246" s="6">
+        <v>1</v>
+      </c>
+      <c r="B246" s="9">
+        <v>3</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="17">
+      <c r="A247" s="6">
+        <v>1</v>
+      </c>
+      <c r="B247" s="9">
+        <v>3</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="17">
+      <c r="A248" s="6">
+        <v>1</v>
+      </c>
+      <c r="B248" s="9">
+        <v>3</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="17">
+      <c r="A249" s="6">
+        <v>1</v>
+      </c>
+      <c r="B249" s="9">
+        <v>3</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="17">
+      <c r="A250" s="6">
+        <v>1</v>
+      </c>
+      <c r="B250" s="9">
+        <v>3</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="17">
+      <c r="A251" s="6">
+        <v>1</v>
+      </c>
+      <c r="B251" s="9">
+        <v>3</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="17">
+      <c r="A252" s="6">
+        <v>1</v>
+      </c>
+      <c r="B252" s="9">
+        <v>1</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="17">
+      <c r="A253" s="6">
+        <v>1</v>
+      </c>
+      <c r="B253" s="9">
+        <v>1</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="17">
+      <c r="A254" s="6">
+        <v>1</v>
+      </c>
+      <c r="B254" s="9">
+        <v>1</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="17">
+      <c r="A255" s="6">
+        <v>0</v>
+      </c>
+      <c r="B255" s="9">
+        <v>1</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="17">
+      <c r="A256" s="6">
+        <v>1</v>
+      </c>
+      <c r="B256" s="9">
+        <v>1</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="17">
+      <c r="A257" s="6">
+        <v>1</v>
+      </c>
+      <c r="B257" s="9">
+        <v>1</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17">
+      <c r="A258" s="6">
+        <v>1</v>
+      </c>
+      <c r="B258" s="9">
+        <v>1</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17">
+      <c r="A259" s="6">
+        <v>1</v>
+      </c>
+      <c r="B259" s="9">
+        <v>1</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="17">
+      <c r="A260" s="6">
+        <v>1</v>
+      </c>
+      <c r="B260" s="9">
+        <v>1</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="17">
+      <c r="A261" s="6">
+        <v>1</v>
+      </c>
+      <c r="B261" s="9">
+        <v>1</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="17">
+      <c r="A262" s="6">
+        <v>1</v>
+      </c>
+      <c r="B262" s="9">
+        <v>6</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="17">
+      <c r="A263" s="6">
+        <v>1</v>
+      </c>
+      <c r="B263" s="9">
+        <v>6</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="17">
+      <c r="A264" s="6">
+        <v>1</v>
+      </c>
+      <c r="B264" s="9">
+        <v>6</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="17">
+      <c r="A265" s="6">
+        <v>0</v>
+      </c>
+      <c r="B265" s="9">
+        <v>6</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="17">
+      <c r="A266" s="6">
+        <v>1</v>
+      </c>
+      <c r="B266" s="9">
+        <v>6</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="17">
+      <c r="A267" s="6">
+        <v>1</v>
+      </c>
+      <c r="B267" s="9">
+        <v>6</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="17">
+      <c r="A268" s="6">
+        <v>1</v>
+      </c>
+      <c r="B268" s="9">
+        <v>6</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="17">
+      <c r="A269" s="6">
+        <v>0</v>
+      </c>
+      <c r="B269" s="9">
+        <v>6</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="17">
+      <c r="A270" s="6">
+        <v>1</v>
+      </c>
+      <c r="B270" s="9">
+        <v>6</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="17">
+      <c r="A271" s="6">
+        <v>1</v>
+      </c>
+      <c r="B271" s="9">
+        <v>6</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="17">
+      <c r="A272" s="6">
+        <v>1</v>
+      </c>
+      <c r="B272" s="9">
+        <v>3</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="17">
+      <c r="A273" s="6">
+        <v>1</v>
+      </c>
+      <c r="B273" s="9">
+        <v>3</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="17">
+      <c r="A274" s="6">
+        <v>1</v>
+      </c>
+      <c r="B274" s="11">
+        <v>3</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="17">
+      <c r="A275" s="6">
+        <v>0</v>
+      </c>
+      <c r="B275" s="11">
+        <v>3</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="17">
+      <c r="A276" s="6">
+        <v>1</v>
+      </c>
+      <c r="B276" s="11">
+        <v>3</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="17">
+      <c r="A277" s="6">
+        <v>1</v>
+      </c>
+      <c r="B277" s="11">
+        <v>3</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="17">
+      <c r="A278" s="6">
+        <v>1</v>
+      </c>
+      <c r="B278" s="12">
+        <v>3</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17">
+      <c r="A279" s="6">
+        <v>1</v>
+      </c>
+      <c r="B279" s="12">
+        <v>3</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="17">
+      <c r="A280" s="6">
+        <v>1</v>
+      </c>
+      <c r="B280" s="12">
+        <v>3</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17">
+      <c r="A281" s="6">
+        <v>1</v>
+      </c>
+      <c r="B281" s="12">
+        <v>3</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="17">
+      <c r="A282" s="6">
+        <v>1</v>
+      </c>
+      <c r="B282" s="12">
+        <v>6</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="17">
+      <c r="A283" s="6">
+        <v>1</v>
+      </c>
+      <c r="B283" s="12">
+        <v>6</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="17">
+      <c r="A284" s="6">
+        <v>1</v>
+      </c>
+      <c r="B284" s="12">
+        <v>6</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17">
+      <c r="A285" s="6">
+        <v>0</v>
+      </c>
+      <c r="B285" s="12">
+        <v>6</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17">
+      <c r="A286" s="6">
+        <v>1</v>
+      </c>
+      <c r="B286" s="12">
+        <v>6</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17">
+      <c r="A287" s="6">
+        <v>1</v>
+      </c>
+      <c r="B287" s="12">
+        <v>6</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="17">
+      <c r="A288" s="6">
+        <v>1</v>
+      </c>
+      <c r="B288" s="12">
+        <v>6</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="17">
+      <c r="A289" s="6">
+        <v>0</v>
+      </c>
+      <c r="B289" s="12">
+        <v>6</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="17">
+      <c r="A290" s="6">
+        <v>1</v>
+      </c>
+      <c r="B290" s="12">
+        <v>6</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="17">
+      <c r="A291" s="6">
+        <v>1</v>
+      </c>
+      <c r="B291" s="12">
+        <v>6</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="17">
+      <c r="A292" s="6">
+        <v>1</v>
+      </c>
+      <c r="B292" s="12">
+        <v>1</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="17">
+      <c r="A293" s="6">
+        <v>1</v>
+      </c>
+      <c r="B293" s="12">
+        <v>1</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="17">
+      <c r="A294" s="6">
+        <v>1</v>
+      </c>
+      <c r="B294" s="12">
+        <v>1</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="17">
+      <c r="A295" s="6">
+        <v>0</v>
+      </c>
+      <c r="B295" s="12">
+        <v>1</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="17">
+      <c r="A296" s="6">
+        <v>1</v>
+      </c>
+      <c r="B296" s="12">
+        <v>1</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="17">
+      <c r="A297" s="6">
+        <v>1</v>
+      </c>
+      <c r="B297" s="12">
+        <v>1</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="17">
+      <c r="A298" s="6">
+        <v>1</v>
+      </c>
+      <c r="B298" s="12">
+        <v>1</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="17">
+      <c r="A299" s="6">
+        <v>1</v>
+      </c>
+      <c r="B299" s="12">
+        <v>1</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="17">
+      <c r="A300" s="6">
+        <v>1</v>
+      </c>
+      <c r="B300" s="12">
+        <v>1</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="17">
+      <c r="A301" s="6">
+        <v>1</v>
+      </c>
+      <c r="B301" s="12">
+        <v>1</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="17">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302" s="9">
+        <v>3</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="17">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303" s="9">
+        <v>3</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="17">
+      <c r="A304">
+        <v>1</v>
+      </c>
+      <c r="B304" s="9">
+        <v>3</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="17">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305" s="9">
+        <v>3</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="17">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306" s="9">
+        <v>3</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="17">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307" s="9">
+        <v>3</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="17">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308" s="9">
+        <v>3</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="17">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309" s="9">
+        <v>3</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="17">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310" s="9">
+        <v>3</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="17">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="B311" s="9">
+        <v>3</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="17">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="B312" s="9">
+        <v>1</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="17">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="B313" s="9">
+        <v>1</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="17">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314" s="9">
+        <v>1</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="17">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" s="9">
+        <v>1</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="17">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316" s="9">
+        <v>1</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="17">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" s="9">
+        <v>1</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="17">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318" s="9">
+        <v>1</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="17">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319" s="9">
+        <v>1</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="17">
+      <c r="A320">
+        <v>1</v>
+      </c>
+      <c r="B320" s="9">
+        <v>1</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="17">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321" s="9">
+        <v>1</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="17">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" s="9">
+        <v>6</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="17">
+      <c r="A323">
+        <v>0</v>
+      </c>
+      <c r="B323" s="9">
+        <v>6</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="17">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324" s="9">
+        <v>6</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="17">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325" s="9">
+        <v>6</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326" s="9">
+        <v>6</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="17">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327" s="9">
+        <v>6</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" s="9">
+        <v>6</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="17">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" s="9">
+        <v>6</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="17">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330" s="9">
+        <v>6</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="17">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" s="9">
+        <v>6</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="17">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332" s="9">
+        <v>3</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17">
+      <c r="A333">
+        <v>0</v>
+      </c>
+      <c r="B333" s="9">
+        <v>3</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="17">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334" s="11">
+        <v>3</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="17">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335" s="11">
+        <v>3</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="17">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336" s="11">
+        <v>3</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="17">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" s="11">
+        <v>3</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="17">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338" s="12">
+        <v>3</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="17">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339" s="12">
+        <v>3</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="17">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340" s="12">
+        <v>3</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="17">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341" s="12">
+        <v>3</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="17">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342" s="12">
+        <v>6</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="17">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343" s="12">
+        <v>6</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="17">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344" s="12">
+        <v>6</v>
+      </c>
+      <c r="C344" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="17">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345" s="12">
+        <v>6</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="17">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346" s="12">
+        <v>6</v>
+      </c>
+      <c r="C346" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="17">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347" s="12">
+        <v>6</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="17">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348" s="12">
+        <v>6</v>
+      </c>
+      <c r="C348" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="17">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349" s="12">
+        <v>6</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="17">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" s="12">
+        <v>6</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="17">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" s="12">
+        <v>6</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="17">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" s="12">
+        <v>1</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="17">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353" s="12">
+        <v>1</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="17">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" s="12">
+        <v>1</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="17">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355" s="12">
+        <v>1</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="17">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356" s="12">
+        <v>1</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="17">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357" s="12">
+        <v>1</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="17">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358" s="12">
+        <v>1</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="17">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359" s="12">
+        <v>1</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="17">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360" s="12">
+        <v>1</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361" s="12">
+        <v>1</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="17">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362" s="9">
+        <v>3</v>
+      </c>
+      <c r="C362" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="17">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363" s="9">
+        <v>3</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="17">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" s="9">
+        <v>3</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="17">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365" s="9">
+        <v>3</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="17">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366" s="9">
+        <v>3</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="17">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367" s="9">
+        <v>3</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="17">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368" s="9">
+        <v>3</v>
+      </c>
+      <c r="C368" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="17">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369" s="9">
+        <v>3</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="17">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370" s="9">
+        <v>3</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="17">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371" s="9">
+        <v>1</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="17">
+      <c r="A372">
+        <v>0</v>
+      </c>
+      <c r="B372" s="9">
+        <v>1</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="17">
+      <c r="A373">
+        <v>1</v>
+      </c>
+      <c r="B373" s="9">
+        <v>1</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="17">
+      <c r="A374">
+        <v>1</v>
+      </c>
+      <c r="B374" s="9">
+        <v>1</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="17">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375" s="9">
+        <v>1</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="17">
+      <c r="A376">
+        <v>1</v>
+      </c>
+      <c r="B376" s="9">
+        <v>1</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="17">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377" s="9">
+        <v>1</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="17">
+      <c r="A378">
+        <v>1</v>
+      </c>
+      <c r="B378" s="9">
+        <v>1</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="17">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379" s="9">
+        <v>1</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="17">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380" s="9">
+        <v>1</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="17">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381" s="9">
+        <v>6</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="17">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382" s="9">
+        <v>6</v>
+      </c>
+      <c r="C382" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="17">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383" s="9">
+        <v>6</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="17">
+      <c r="A384">
+        <v>1</v>
+      </c>
+      <c r="B384" s="9">
+        <v>6</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="17">
+      <c r="A385">
+        <v>1</v>
+      </c>
+      <c r="B385" s="9">
+        <v>6</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="17">
+      <c r="A386">
+        <v>1</v>
+      </c>
+      <c r="B386" s="9">
+        <v>6</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="17">
+      <c r="A387">
+        <v>1</v>
+      </c>
+      <c r="B387" s="9">
+        <v>6</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="17">
+      <c r="A388">
+        <v>1</v>
+      </c>
+      <c r="B388" s="9">
+        <v>6</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="17">
+      <c r="A389">
+        <v>0</v>
+      </c>
+      <c r="B389" s="9">
+        <v>6</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="17">
+      <c r="A390">
+        <v>1</v>
+      </c>
+      <c r="B390" s="9">
+        <v>6</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="17">
+      <c r="A391">
+        <v>0</v>
+      </c>
+      <c r="B391" s="9">
+        <v>3</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="17">
+      <c r="A392">
+        <v>0</v>
+      </c>
+      <c r="B392" s="9">
+        <v>3</v>
+      </c>
+      <c r="C392" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="17">
+      <c r="A393">
+        <v>0</v>
+      </c>
+      <c r="B393" s="11">
+        <v>3</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="17">
+      <c r="A394">
+        <v>1</v>
+      </c>
+      <c r="B394" s="11">
+        <v>3</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="17">
+      <c r="A395">
+        <v>0</v>
+      </c>
+      <c r="B395" s="11">
+        <v>3</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="17">
+      <c r="A396">
+        <v>1</v>
+      </c>
+      <c r="B396" s="11">
+        <v>3</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="17">
+      <c r="A397">
+        <v>1</v>
+      </c>
+      <c r="B397" s="12">
+        <v>3</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="17">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398" s="12">
+        <v>3</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="17">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399" s="12">
+        <v>3</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="17">
+      <c r="A400">
+        <v>1</v>
+      </c>
+      <c r="B400" s="12">
+        <v>3</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="17">
+      <c r="A401">
+        <v>0</v>
+      </c>
+      <c r="B401" s="12">
+        <v>6</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="17">
+      <c r="A402">
+        <v>0</v>
+      </c>
+      <c r="B402" s="12">
+        <v>6</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="17">
+      <c r="A403">
+        <v>0</v>
+      </c>
+      <c r="B403" s="12">
+        <v>6</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="17">
+      <c r="A404">
+        <v>1</v>
+      </c>
+      <c r="B404" s="12">
+        <v>6</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="17">
+      <c r="A405">
+        <v>1</v>
+      </c>
+      <c r="B405" s="12">
+        <v>6</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="17">
+      <c r="A406">
+        <v>1</v>
+      </c>
+      <c r="B406" s="12">
+        <v>6</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="17">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407" s="12">
+        <v>6</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="17">
+      <c r="A408">
+        <v>1</v>
+      </c>
+      <c r="B408" s="12">
+        <v>6</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="17">
+      <c r="A409">
+        <v>0</v>
+      </c>
+      <c r="B409" s="12">
+        <v>6</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="17">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410" s="12">
+        <v>6</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="17">
+      <c r="A411">
+        <v>0</v>
+      </c>
+      <c r="B411" s="12">
+        <v>6</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="17">
+      <c r="A412">
+        <v>0</v>
+      </c>
+      <c r="B412" s="12">
+        <v>1</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="17">
+      <c r="A413">
+        <v>1</v>
+      </c>
+      <c r="B413" s="12">
+        <v>1</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="17">
+      <c r="A414">
+        <v>1</v>
+      </c>
+      <c r="B414" s="12">
+        <v>1</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="17">
+      <c r="A415">
+        <v>1</v>
+      </c>
+      <c r="B415" s="12">
+        <v>1</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="17">
+      <c r="A416">
+        <v>1</v>
+      </c>
+      <c r="B416" s="12">
+        <v>1</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="17">
+      <c r="A417">
+        <v>1</v>
+      </c>
+      <c r="B417" s="12">
+        <v>1</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="17">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418" s="12">
+        <v>1</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="17">
+      <c r="A419">
+        <v>1</v>
+      </c>
+      <c r="B419" s="12">
+        <v>1</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="17">
+      <c r="A420">
+        <v>1</v>
+      </c>
+      <c r="B420" s="12">
+        <v>1</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>1</v>
+      </c>
+      <c r="B421" s="12">
+        <v>1</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="B422" s="9"/>
+      <c r="C422" s="10"/>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="B423" s="9"/>
+      <c r="C423" s="10"/>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="B424" s="9"/>
+      <c r="C424" s="10"/>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="B425" s="9"/>
+      <c r="C425" s="10"/>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="B426" s="9"/>
+      <c r="C426" s="10"/>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="B427" s="9"/>
+      <c r="C427" s="10"/>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="B428" s="9"/>
+      <c r="C428" s="10"/>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="B429" s="9"/>
+      <c r="C429" s="10"/>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="B430" s="9"/>
+      <c r="C430" s="10"/>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="B431" s="9"/>
+      <c r="C431" s="10"/>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="B432" s="9"/>
+      <c r="C432" s="10"/>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="B433" s="9"/>
+      <c r="C433" s="10"/>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="B434" s="9"/>
+      <c r="C434" s="10"/>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="B435" s="9"/>
+      <c r="C435" s="10"/>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="B436" s="9"/>
+      <c r="C436" s="10"/>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="B437" s="9"/>
+      <c r="C437" s="10"/>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="B438" s="9"/>
+      <c r="C438" s="10"/>
+    </row>
+    <row r="439" spans="2:3">
+      <c r="B439" s="9"/>
+      <c r="C439" s="10"/>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="B440" s="9"/>
+      <c r="C440" s="10"/>
+    </row>
+    <row r="441" spans="2:3">
+      <c r="B441" s="9"/>
+      <c r="C441" s="10"/>
+    </row>
+    <row r="442" spans="2:3">
+      <c r="B442" s="9"/>
+      <c r="C442" s="10"/>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="B443" s="9"/>
+      <c r="C443" s="10"/>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" s="9"/>
+      <c r="C444" s="10"/>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="B445" s="9"/>
+      <c r="C445" s="10"/>
+    </row>
+    <row r="446" spans="2:3">
+      <c r="B446" s="9"/>
+      <c r="C446" s="10"/>
+    </row>
+    <row r="447" spans="2:3">
+      <c r="B447" s="9"/>
+      <c r="C447" s="10"/>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="B448" s="9"/>
+      <c r="C448" s="10"/>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="B449" s="9"/>
+      <c r="C449" s="10"/>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="B450" s="9"/>
+      <c r="C450" s="10"/>
+    </row>
+    <row r="451" spans="2:3">
+      <c r="B451" s="9"/>
+      <c r="C451" s="10"/>
+    </row>
+    <row r="452" spans="2:3">
+      <c r="B452" s="9"/>
+      <c r="C452" s="10"/>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="B453" s="9"/>
+      <c r="C453" s="10"/>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="B454" s="11"/>
+      <c r="C454" s="10"/>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="B455" s="11"/>
+      <c r="C455" s="10"/>
+    </row>
+    <row r="456" spans="2:3">
+      <c r="B456" s="11"/>
+      <c r="C456" s="10"/>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="B457" s="11"/>
+      <c r="C457" s="10"/>
+    </row>
+    <row r="458" spans="2:3">
+      <c r="C458" s="10"/>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="C459" s="10"/>
+    </row>
+    <row r="460" spans="2:3">
+      <c r="C460" s="10"/>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="C461" s="10"/>
+    </row>
+    <row r="462" spans="2:3">
+      <c r="C462" s="10"/>
+    </row>
+    <row r="463" spans="2:3">
+      <c r="C463" s="10"/>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="C464" s="10"/>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="10"/>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" s="10"/>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="10"/>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="10"/>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="10"/>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="10"/>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="10"/>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="10"/>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="10"/>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="10"/>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="10"/>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="10"/>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="10"/>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="10"/>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="10"/>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="10"/>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/orientation-change-results.xlsx
+++ b/Results/orientation-change-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B28EF-FC19-FB43-B8D8-684A7161F1A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90DC5C-30FA-634A-9CB4-E1DC72F54112}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="8" xr2:uid="{B9D9EF45-235E-C34A-AB63-58AF9355DAFF}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{B9D9EF45-235E-C34A-AB63-58AF9355DAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="shoppinglist" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <sheet name="total" sheetId="8" r:id="rId8"/>
     <sheet name="data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1623,7 +1620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1815,7 +1812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1867,6 +1864,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3915,131 +3913,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="beecount"/>
-      <sheetName val="shoppinglist"/>
-      <sheetName val="simplydo"/>
-      <sheetName val="counter"/>
-      <sheetName val="bmi"/>
-      <sheetName val="editor"/>
-      <sheetName val="primary"/>
-      <sheetName val="total"/>
-      <sheetName val="data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Test Eseguiti</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Test Falliti</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Succ Rate Medio</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>C1</v>
-          </cell>
-          <cell r="B2">
-            <v>70</v>
-          </cell>
-          <cell r="C2">
-            <v>55</v>
-          </cell>
-          <cell r="D2">
-            <v>0.21428571428571433</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>C2</v>
-          </cell>
-          <cell r="B3">
-            <v>70</v>
-          </cell>
-          <cell r="C3">
-            <v>58</v>
-          </cell>
-          <cell r="D3">
-            <v>0.17142857142857146</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>C3</v>
-          </cell>
-          <cell r="B4">
-            <v>70</v>
-          </cell>
-          <cell r="C4">
-            <v>58</v>
-          </cell>
-          <cell r="D4">
-            <v>0.17142857142857143</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>C4</v>
-          </cell>
-          <cell r="B5">
-            <v>70</v>
-          </cell>
-          <cell r="C5">
-            <v>47</v>
-          </cell>
-          <cell r="D5">
-            <v>0.32857142857142863</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>C5</v>
-          </cell>
-          <cell r="B6">
-            <v>70</v>
-          </cell>
-          <cell r="C6">
-            <v>48</v>
-          </cell>
-          <cell r="D6">
-            <v>0.31428571428571433</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>C6</v>
-          </cell>
-          <cell r="B7">
-            <v>70</v>
-          </cell>
-          <cell r="C7">
-            <v>56</v>
-          </cell>
-          <cell r="D7">
-            <v>0.2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4340,17 +4213,17 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D61"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4379,7 +4252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +4281,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4437,7 +4310,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4466,7 +4339,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -4495,7 +4368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -4524,7 +4397,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4553,7 +4426,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4566,8 +4439,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+      <c r="K8" s="23">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -4581,7 +4458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4595,7 +4472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4609,7 +4486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4623,7 +4500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -4637,7 +4514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -4651,7 +4528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -4665,7 +4542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -4679,7 +4556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -4693,7 +4570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -4707,7 +4584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -4721,7 +4598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -4735,7 +4612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -4749,7 +4626,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -4763,7 +4640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -4777,7 +4654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -4791,7 +4668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -4805,7 +4682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -4819,7 +4696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -4833,7 +4710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -4847,7 +4724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -4861,7 +4738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -4875,7 +4752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -4889,7 +4766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -4903,7 +4780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -4917,7 +4794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -4931,7 +4808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -4945,7 +4822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -4959,7 +4836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +4850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -4987,7 +4864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -5001,7 +4878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -5015,7 +4892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -5029,7 +4906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -5043,7 +4920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -5057,7 +4934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -5071,7 +4948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -5085,7 +4962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -5099,7 +4976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -5113,7 +4990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -5127,7 +5004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -5141,7 +5018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -5155,7 +5032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -5169,7 +5046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -5183,7 +5060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -5197,7 +5074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -5211,7 +5088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -5225,7 +5102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -5239,7 +5116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -5253,7 +5130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -5267,7 +5144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -5281,7 +5158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -5295,7 +5172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -5386,17 +5263,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FE8BF7-D5EA-C143-8EBF-D18AC9BE7C96}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5425,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -5454,7 +5331,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -5483,7 +5360,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
@@ -5512,7 +5389,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -5541,7 +5418,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -5570,7 +5447,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
@@ -5599,7 +5476,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -5612,8 +5489,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
+      <c r="J8" s="23">
+        <f>AVERAGE(J2:J7)</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -5627,7 +5508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -5641,7 +5522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
@@ -5655,7 +5536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
@@ -5669,7 +5550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
@@ -5683,7 +5564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -5697,7 +5578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -5711,7 +5592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>108</v>
       </c>
@@ -5725,7 +5606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -5739,7 +5620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -5753,7 +5634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -5767,7 +5648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -5781,7 +5662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -5795,7 +5676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5809,7 +5690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
@@ -5823,7 +5704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
@@ -5837,7 +5718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5851,7 +5732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
@@ -5865,7 +5746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
@@ -5879,7 +5760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>120</v>
       </c>
@@ -5893,7 +5774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
@@ -5907,7 +5788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>122</v>
       </c>
@@ -5921,7 +5802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
@@ -5935,7 +5816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -5949,7 +5830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
@@ -5963,7 +5844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
@@ -5977,7 +5858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>127</v>
       </c>
@@ -5991,7 +5872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
@@ -6005,7 +5886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>129</v>
       </c>
@@ -6019,7 +5900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
@@ -6033,7 +5914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
@@ -6047,7 +5928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -6061,7 +5942,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>133</v>
       </c>
@@ -6075,7 +5956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>134</v>
       </c>
@@ -6089,7 +5970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
@@ -6103,7 +5984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>136</v>
       </c>
@@ -6117,7 +5998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>137</v>
       </c>
@@ -6131,7 +6012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>138</v>
       </c>
@@ -6145,7 +6026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -6159,7 +6040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
@@ -6173,7 +6054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -6187,7 +6068,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -6201,7 +6082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -6215,7 +6096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>144</v>
       </c>
@@ -6229,7 +6110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -6243,7 +6124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
@@ -6257,7 +6138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -6271,7 +6152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>148</v>
       </c>
@@ -6285,7 +6166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>149</v>
       </c>
@@ -6299,7 +6180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
@@ -6313,7 +6194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -6327,7 +6208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>152</v>
       </c>
@@ -6341,7 +6222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>153</v>
       </c>
@@ -6433,10 +6314,10 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D61"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
@@ -6444,7 +6325,7 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6473,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -6502,7 +6383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -6531,7 +6412,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>156</v>
       </c>
@@ -6560,7 +6441,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>157</v>
       </c>
@@ -6589,7 +6470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>158</v>
       </c>
@@ -6618,7 +6499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>159</v>
       </c>
@@ -6647,7 +6528,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>160</v>
       </c>
@@ -6660,8 +6541,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+      <c r="K8" s="23">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
@@ -6675,7 +6560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>162</v>
       </c>
@@ -6689,7 +6574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>163</v>
       </c>
@@ -6703,7 +6588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
@@ -6717,7 +6602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>165</v>
       </c>
@@ -6731,7 +6616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>166</v>
       </c>
@@ -6745,7 +6630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>167</v>
       </c>
@@ -6759,7 +6644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>168</v>
       </c>
@@ -6773,7 +6658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>169</v>
       </c>
@@ -6787,7 +6672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>170</v>
       </c>
@@ -6801,7 +6686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>171</v>
       </c>
@@ -6815,7 +6700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>172</v>
       </c>
@@ -6829,7 +6714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>173</v>
       </c>
@@ -6843,7 +6728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>174</v>
       </c>
@@ -6857,7 +6742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>175</v>
       </c>
@@ -6871,7 +6756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>176</v>
       </c>
@@ -6885,7 +6770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>177</v>
       </c>
@@ -6899,7 +6784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>178</v>
       </c>
@@ -6913,7 +6798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>179</v>
       </c>
@@ -6927,7 +6812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>180</v>
       </c>
@@ -6941,7 +6826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>181</v>
       </c>
@@ -6955,7 +6840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>182</v>
       </c>
@@ -6969,7 +6854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>183</v>
       </c>
@@ -6983,7 +6868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>184</v>
       </c>
@@ -6997,7 +6882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>185</v>
       </c>
@@ -7011,7 +6896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>186</v>
       </c>
@@ -7025,7 +6910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>187</v>
       </c>
@@ -7039,7 +6924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>188</v>
       </c>
@@ -7053,7 +6938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>189</v>
       </c>
@@ -7067,7 +6952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>190</v>
       </c>
@@ -7081,7 +6966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>191</v>
       </c>
@@ -7095,7 +6980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>192</v>
       </c>
@@ -7109,7 +6994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>193</v>
       </c>
@@ -7123,7 +7008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>194</v>
       </c>
@@ -7137,7 +7022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>195</v>
       </c>
@@ -7151,7 +7036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>196</v>
       </c>
@@ -7165,7 +7050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>197</v>
       </c>
@@ -7179,7 +7064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>198</v>
       </c>
@@ -7193,7 +7078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>199</v>
       </c>
@@ -7207,7 +7092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>200</v>
       </c>
@@ -7221,7 +7106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>201</v>
       </c>
@@ -7235,7 +7120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>202</v>
       </c>
@@ -7249,7 +7134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>203</v>
       </c>
@@ -7263,7 +7148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>204</v>
       </c>
@@ -7277,7 +7162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>205</v>
       </c>
@@ -7291,7 +7176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>206</v>
       </c>
@@ -7305,7 +7190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>207</v>
       </c>
@@ -7319,7 +7204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>208</v>
       </c>
@@ -7333,7 +7218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>209</v>
       </c>
@@ -7347,7 +7232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>210</v>
       </c>
@@ -7361,7 +7246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>211</v>
       </c>
@@ -7375,7 +7260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>212</v>
       </c>
@@ -7389,7 +7274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>213</v>
       </c>
@@ -7480,18 +7365,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8AF8BE-ACA2-2B42-A6EA-447D1FC32BBB}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7520,7 +7405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>226</v>
       </c>
@@ -7549,7 +7434,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>227</v>
       </c>
@@ -7578,7 +7463,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>228</v>
       </c>
@@ -7607,7 +7492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>229</v>
       </c>
@@ -7636,7 +7521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>230</v>
       </c>
@@ -7665,7 +7550,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>
@@ -7694,7 +7579,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>232</v>
       </c>
@@ -7707,8 +7592,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+      <c r="K8" s="23">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>233</v>
       </c>
@@ -7722,7 +7611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>234</v>
       </c>
@@ -7736,7 +7625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>235</v>
       </c>
@@ -7750,7 +7639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>236</v>
       </c>
@@ -7764,7 +7653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>237</v>
       </c>
@@ -7778,7 +7667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>238</v>
       </c>
@@ -7792,7 +7681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>239</v>
       </c>
@@ -7806,7 +7695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
@@ -7820,7 +7709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -7834,7 +7723,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>242</v>
       </c>
@@ -7848,7 +7737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>243</v>
       </c>
@@ -7862,7 +7751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
@@ -7876,7 +7765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>245</v>
       </c>
@@ -7890,7 +7779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>246</v>
       </c>
@@ -7904,7 +7793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>247</v>
       </c>
@@ -7918,7 +7807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>248</v>
       </c>
@@ -7932,7 +7821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>249</v>
       </c>
@@ -7946,7 +7835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>250</v>
       </c>
@@ -7960,7 +7849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>251</v>
       </c>
@@ -7974,7 +7863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>252</v>
       </c>
@@ -7988,7 +7877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>253</v>
       </c>
@@ -8002,7 +7891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>254</v>
       </c>
@@ -8016,7 +7905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>255</v>
       </c>
@@ -8030,7 +7919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>256</v>
       </c>
@@ -8044,7 +7933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>257</v>
       </c>
@@ -8058,7 +7947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>258</v>
       </c>
@@ -8072,7 +7961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>259</v>
       </c>
@@ -8086,7 +7975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>260</v>
       </c>
@@ -8100,7 +7989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>261</v>
       </c>
@@ -8114,7 +8003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>262</v>
       </c>
@@ -8128,7 +8017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>263</v>
       </c>
@@ -8142,7 +8031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>264</v>
       </c>
@@ -8156,7 +8045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>265</v>
       </c>
@@ -8170,7 +8059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>266</v>
       </c>
@@ -8184,7 +8073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>267</v>
       </c>
@@ -8198,7 +8087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>268</v>
       </c>
@@ -8212,7 +8101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>269</v>
       </c>
@@ -8226,7 +8115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>270</v>
       </c>
@@ -8240,7 +8129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>271</v>
       </c>
@@ -8254,7 +8143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>272</v>
       </c>
@@ -8268,7 +8157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>273</v>
       </c>
@@ -8282,7 +8171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>274</v>
       </c>
@@ -8296,7 +8185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>275</v>
       </c>
@@ -8310,7 +8199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>276</v>
       </c>
@@ -8324,7 +8213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>277</v>
       </c>
@@ -8338,7 +8227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>278</v>
       </c>
@@ -8352,7 +8241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>279</v>
       </c>
@@ -8366,7 +8255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>280</v>
       </c>
@@ -8380,7 +8269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>281</v>
       </c>
@@ -8394,7 +8283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>282</v>
       </c>
@@ -8408,7 +8297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>283</v>
       </c>
@@ -8422,7 +8311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>284</v>
       </c>
@@ -8436,7 +8325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>285</v>
       </c>
@@ -8527,18 +8416,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20488D0-4FF5-9844-98F2-3A0393E8E76D}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8567,7 +8456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>298</v>
       </c>
@@ -8596,7 +8485,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>299</v>
       </c>
@@ -8625,7 +8514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>300</v>
       </c>
@@ -8654,7 +8543,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>301</v>
       </c>
@@ -8683,7 +8572,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -8712,7 +8601,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>303</v>
       </c>
@@ -8741,7 +8630,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>304</v>
       </c>
@@ -8754,8 +8643,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+      <c r="K8" s="23">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>305</v>
       </c>
@@ -8769,7 +8662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>306</v>
       </c>
@@ -8783,7 +8676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>307</v>
       </c>
@@ -8797,7 +8690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>308</v>
       </c>
@@ -8811,7 +8704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>309</v>
       </c>
@@ -8825,7 +8718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>310</v>
       </c>
@@ -8839,7 +8732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>311</v>
       </c>
@@ -8853,7 +8746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>312</v>
       </c>
@@ -8867,7 +8760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>313</v>
       </c>
@@ -8881,7 +8774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>314</v>
       </c>
@@ -8895,7 +8788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>315</v>
       </c>
@@ -8909,7 +8802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>316</v>
       </c>
@@ -8923,7 +8816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>317</v>
       </c>
@@ -8937,7 +8830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>318</v>
       </c>
@@ -8951,7 +8844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>319</v>
       </c>
@@ -8965,7 +8858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>320</v>
       </c>
@@ -8979,7 +8872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>321</v>
       </c>
@@ -8993,7 +8886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>322</v>
       </c>
@@ -9007,7 +8900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>323</v>
       </c>
@@ -9021,7 +8914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>324</v>
       </c>
@@ -9035,7 +8928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>325</v>
       </c>
@@ -9049,7 +8942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>326</v>
       </c>
@@ -9063,7 +8956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>327</v>
       </c>
@@ -9077,7 +8970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>328</v>
       </c>
@@ -9091,7 +8984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>329</v>
       </c>
@@ -9105,7 +8998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>330</v>
       </c>
@@ -9119,7 +9012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>331</v>
       </c>
@@ -9133,7 +9026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>332</v>
       </c>
@@ -9147,7 +9040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>333</v>
       </c>
@@ -9161,7 +9054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>334</v>
       </c>
@@ -9175,7 +9068,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>335</v>
       </c>
@@ -9189,7 +9082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>336</v>
       </c>
@@ -9203,7 +9096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>337</v>
       </c>
@@ -9217,7 +9110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>338</v>
       </c>
@@ -9231,7 +9124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>339</v>
       </c>
@@ -9245,7 +9138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>340</v>
       </c>
@@ -9259,7 +9152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>341</v>
       </c>
@@ -9273,7 +9166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>342</v>
       </c>
@@ -9287,7 +9180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -9301,7 +9194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>344</v>
       </c>
@@ -9315,7 +9208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>345</v>
       </c>
@@ -9329,7 +9222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>346</v>
       </c>
@@ -9343,7 +9236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>347</v>
       </c>
@@ -9357,7 +9250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>348</v>
       </c>
@@ -9371,7 +9264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>349</v>
       </c>
@@ -9385,7 +9278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>350</v>
       </c>
@@ -9399,7 +9292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>351</v>
       </c>
@@ -9413,7 +9306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>352</v>
       </c>
@@ -9427,7 +9320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>353</v>
       </c>
@@ -9441,7 +9334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>354</v>
       </c>
@@ -9455,7 +9348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>355</v>
       </c>
@@ -9469,7 +9362,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -9483,7 +9376,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>357</v>
       </c>
@@ -9574,18 +9467,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6568B7-B5AB-9149-9A66-0DAE535D2212}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9614,7 +9507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>382</v>
       </c>
@@ -9643,7 +9536,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>383</v>
       </c>
@@ -9672,7 +9565,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>384</v>
       </c>
@@ -9701,7 +9594,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>385</v>
       </c>
@@ -9730,7 +9623,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>386</v>
       </c>
@@ -9759,7 +9652,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>387</v>
       </c>
@@ -9788,7 +9681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>388</v>
       </c>
@@ -9801,8 +9694,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
+      <c r="J8" s="23">
+        <f>AVERAGE(J2:J7)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>389</v>
       </c>
@@ -9816,7 +9713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>390</v>
       </c>
@@ -9830,7 +9727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>391</v>
       </c>
@@ -9844,7 +9741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>392</v>
       </c>
@@ -9858,7 +9755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>393</v>
       </c>
@@ -9872,7 +9769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>394</v>
       </c>
@@ -9886,7 +9783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>395</v>
       </c>
@@ -9900,7 +9797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>396</v>
       </c>
@@ -9914,7 +9811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>397</v>
       </c>
@@ -9928,7 +9825,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>398</v>
       </c>
@@ -9942,7 +9839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>399</v>
       </c>
@@ -9956,7 +9853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>400</v>
       </c>
@@ -9970,7 +9867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>401</v>
       </c>
@@ -9984,7 +9881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>402</v>
       </c>
@@ -9998,7 +9895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>403</v>
       </c>
@@ -10012,7 +9909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>404</v>
       </c>
@@ -10026,7 +9923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>405</v>
       </c>
@@ -10040,7 +9937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>406</v>
       </c>
@@ -10054,7 +9951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>407</v>
       </c>
@@ -10068,7 +9965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>408</v>
       </c>
@@ -10082,7 +9979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>409</v>
       </c>
@@ -10096,7 +9993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>410</v>
       </c>
@@ -10110,7 +10007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>411</v>
       </c>
@@ -10124,7 +10021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>412</v>
       </c>
@@ -10138,7 +10035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>413</v>
       </c>
@@ -10152,7 +10049,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>414</v>
       </c>
@@ -10166,7 +10063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>415</v>
       </c>
@@ -10180,7 +10077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>416</v>
       </c>
@@ -10194,7 +10091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>417</v>
       </c>
@@ -10208,7 +10105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>418</v>
       </c>
@@ -10222,7 +10119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>419</v>
       </c>
@@ -10236,7 +10133,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>420</v>
       </c>
@@ -10250,7 +10147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>421</v>
       </c>
@@ -10264,7 +10161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>422</v>
       </c>
@@ -10278,7 +10175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>423</v>
       </c>
@@ -10292,7 +10189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>424</v>
       </c>
@@ -10306,7 +10203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>425</v>
       </c>
@@ -10320,7 +10217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>426</v>
       </c>
@@ -10334,7 +10231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>427</v>
       </c>
@@ -10348,7 +10245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>428</v>
       </c>
@@ -10362,7 +10259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>429</v>
       </c>
@@ -10376,7 +10273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>430</v>
       </c>
@@ -10390,7 +10287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>431</v>
       </c>
@@ -10404,7 +10301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>432</v>
       </c>
@@ -10418,7 +10315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>433</v>
       </c>
@@ -10432,7 +10329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>434</v>
       </c>
@@ -10446,7 +10343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>435</v>
       </c>
@@ -10460,7 +10357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>436</v>
       </c>
@@ -10474,7 +10371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>437</v>
       </c>
@@ -10488,7 +10385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>438</v>
       </c>
@@ -10502,7 +10399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>439</v>
       </c>
@@ -10516,7 +10413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>440</v>
       </c>
@@ -10530,7 +10427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>441</v>
       </c>
@@ -10621,17 +10518,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220DE8E-F42C-C349-BD85-D7CA51F8F176}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10660,7 +10557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>454</v>
       </c>
@@ -10689,7 +10586,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -10718,7 +10615,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>456</v>
       </c>
@@ -10747,7 +10644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>457</v>
       </c>
@@ -10776,7 +10673,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>458</v>
       </c>
@@ -10805,7 +10702,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>459</v>
       </c>
@@ -10834,7 +10731,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>460</v>
       </c>
@@ -10847,8 +10744,12 @@
       <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
+      <c r="J8" s="23">
+        <f>AVERAGE(J2:J7)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>461</v>
       </c>
@@ -10862,7 +10763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>462</v>
       </c>
@@ -10876,7 +10777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>463</v>
       </c>
@@ -10890,7 +10791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>464</v>
       </c>
@@ -10904,7 +10805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>465</v>
       </c>
@@ -10918,7 +10819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>466</v>
       </c>
@@ -10932,7 +10833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>467</v>
       </c>
@@ -10946,7 +10847,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>468</v>
       </c>
@@ -10960,7 +10861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>469</v>
       </c>
@@ -10974,7 +10875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>470</v>
       </c>
@@ -10988,7 +10889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>471</v>
       </c>
@@ -11002,7 +10903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>472</v>
       </c>
@@ -11016,7 +10917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>473</v>
       </c>
@@ -11030,7 +10931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>474</v>
       </c>
@@ -11044,7 +10945,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>475</v>
       </c>
@@ -11058,7 +10959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>476</v>
       </c>
@@ -11072,7 +10973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>477</v>
       </c>
@@ -11086,7 +10987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>478</v>
       </c>
@@ -11100,7 +11001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>479</v>
       </c>
@@ -11114,7 +11015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>480</v>
       </c>
@@ -11128,7 +11029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>481</v>
       </c>
@@ -11142,7 +11043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>482</v>
       </c>
@@ -11156,7 +11057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>483</v>
       </c>
@@ -11170,7 +11071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>484</v>
       </c>
@@ -11184,7 +11085,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>485</v>
       </c>
@@ -11198,7 +11099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>486</v>
       </c>
@@ -11212,7 +11113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>487</v>
       </c>
@@ -11226,7 +11127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>488</v>
       </c>
@@ -11240,7 +11141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>489</v>
       </c>
@@ -11254,7 +11155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>490</v>
       </c>
@@ -11268,7 +11169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>491</v>
       </c>
@@ -11282,7 +11183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>492</v>
       </c>
@@ -11296,7 +11197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>493</v>
       </c>
@@ -11310,7 +11211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>494</v>
       </c>
@@ -11324,7 +11225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>495</v>
       </c>
@@ -11338,7 +11239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>496</v>
       </c>
@@ -11352,7 +11253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>497</v>
       </c>
@@ -11366,7 +11267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>498</v>
       </c>
@@ -11380,7 +11281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>499</v>
       </c>
@@ -11394,7 +11295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>500</v>
       </c>
@@ -11408,7 +11309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>501</v>
       </c>
@@ -11422,7 +11323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>502</v>
       </c>
@@ -11436,7 +11337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>503</v>
       </c>
@@ -11450,7 +11351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>504</v>
       </c>
@@ -11464,7 +11365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>505</v>
       </c>
@@ -11478,7 +11379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>506</v>
       </c>
@@ -11492,7 +11393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>507</v>
       </c>
@@ -11506,7 +11407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>508</v>
       </c>
@@ -11520,7 +11421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>509</v>
       </c>
@@ -11534,7 +11435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>510</v>
       </c>
@@ -11548,7 +11449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>511</v>
       </c>
@@ -11562,7 +11463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>512</v>
       </c>
@@ -11576,7 +11477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>513</v>
       </c>
@@ -11671,12 +11572,12 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>514</v>
       </c>
@@ -11690,7 +11591,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>518</v>
       </c>
@@ -11707,7 +11608,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>519</v>
       </c>
@@ -11724,7 +11625,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>520</v>
       </c>
@@ -11741,7 +11642,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>521</v>
       </c>
@@ -11758,7 +11659,7 @@
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>522</v>
       </c>
@@ -11775,7 +11676,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>523</v>
       </c>
@@ -11792,7 +11693,7 @@
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>524</v>
       </c>
@@ -11819,17 +11720,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA676A-0CA7-8D44-B7DC-49DBAB8C2710}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A362" sqref="A362:C421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11840,7 +11741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11851,7 +11752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11862,7 +11763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11873,7 +11774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11884,7 +11785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11895,7 +11796,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11906,7 +11807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11917,7 +11818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11928,7 +11829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11939,7 +11840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11950,7 +11851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11961,7 +11862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11972,7 +11873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11983,7 +11884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -11994,7 +11895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12005,7 +11906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -12016,7 +11917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12027,7 +11928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -12038,7 +11939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -12049,7 +11950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -12060,7 +11961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -12071,7 +11972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -12082,7 +11983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -12093,7 +11994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12104,7 +12005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -12115,7 +12016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -12126,7 +12027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -12137,7 +12038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -12148,7 +12049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -12159,7 +12060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -12170,7 +12071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -12181,7 +12082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -12192,7 +12093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -12203,7 +12104,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -12214,7 +12115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -12225,7 +12126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12236,7 +12137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -12247,7 +12148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -12258,7 +12159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -12269,7 +12170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -12280,7 +12181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -12291,7 +12192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -12302,7 +12203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -12313,7 +12214,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -12324,7 +12225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12335,7 +12236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -12346,7 +12247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12357,7 +12258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -12368,7 +12269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12379,7 +12280,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12390,7 +12291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -12401,7 +12302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -12412,7 +12313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -12423,7 +12324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -12434,7 +12335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -12445,7 +12346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -12456,7 +12357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -12467,7 +12368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12478,7 +12379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -12489,7 +12390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -12500,7 +12401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -12511,7 +12412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -12522,7 +12423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -12533,7 +12434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -12544,7 +12445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -12555,7 +12456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -12566,7 +12467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -12577,7 +12478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -12588,7 +12489,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -12599,7 +12500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -12610,7 +12511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -12621,7 +12522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -12632,7 +12533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -12643,7 +12544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -12654,7 +12555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
@@ -12665,7 +12566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -12676,7 +12577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -12687,7 +12588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -12698,7 +12599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -12709,7 +12610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -12720,7 +12621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
@@ -12731,7 +12632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -12742,7 +12643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -12753,7 +12654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
@@ -12764,7 +12665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
@@ -12775,7 +12676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
@@ -12786,7 +12687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -12797,7 +12698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -12808,7 +12709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
@@ -12819,7 +12720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -12830,7 +12731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
@@ -12841,7 +12742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -12852,7 +12753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -12863,7 +12764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
@@ -12874,7 +12775,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -12885,7 +12786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
@@ -12896,7 +12797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -12907,7 +12808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
@@ -12918,7 +12819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -12929,7 +12830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
@@ -12940,7 +12841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -12951,7 +12852,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -12962,7 +12863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -12973,7 +12874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -12984,7 +12885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0</v>
       </c>
@@ -12995,7 +12896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -13006,7 +12907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -13017,7 +12918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17">
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -13028,7 +12929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0</v>
       </c>
@@ -13039,7 +12940,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17">
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0</v>
       </c>
@@ -13050,7 +12951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -13061,7 +12962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="17">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -13072,7 +12973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="17">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -13083,7 +12984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -13094,7 +12995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="17">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -13105,7 +13006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -13116,7 +13017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -13127,7 +13028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17">
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -13138,7 +13039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -13149,7 +13050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17">
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -13160,7 +13061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17">
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -13171,7 +13072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -13182,7 +13083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -13193,7 +13094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17">
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0</v>
       </c>
@@ -13204,7 +13105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0</v>
       </c>
@@ -13215,7 +13116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17">
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -13226,7 +13127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -13237,7 +13138,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -13248,7 +13149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -13259,7 +13160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17">
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -13270,7 +13171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17">
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -13281,7 +13182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17">
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -13292,7 +13193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -13303,7 +13204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -13314,7 +13215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -13325,7 +13226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="17">
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -13336,7 +13237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="17">
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -13347,7 +13248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17">
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -13358,7 +13259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -13369,7 +13270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -13380,7 +13281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="17">
+    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -13391,7 +13292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17">
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -13402,7 +13303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0</v>
       </c>
@@ -13413,7 +13314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17">
+    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -13424,7 +13325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="17">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -13435,7 +13336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="17">
+    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -13446,7 +13347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -13457,7 +13358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -13468,7 +13369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17">
+    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -13479,7 +13380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="17">
+    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
@@ -13490,7 +13391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -13501,7 +13402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -13512,7 +13413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17">
+    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -13523,7 +13424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="17">
+    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -13534,7 +13435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="17">
+    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -13545,7 +13446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="17">
+    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -13556,7 +13457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -13567,7 +13468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17">
+    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -13578,7 +13479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17">
+    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -13589,7 +13490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="17">
+    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -13600,7 +13501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="17">
+    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -13611,7 +13512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="17">
+    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -13622,7 +13523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="17">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0</v>
       </c>
@@ -13633,7 +13534,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="17">
+    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -13644,7 +13545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -13655,7 +13556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="17">
+    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -13666,7 +13567,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="17">
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -13677,7 +13578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="17">
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -13688,7 +13589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17">
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -13699,7 +13600,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="17">
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0</v>
       </c>
@@ -13710,7 +13611,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="17">
+    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -13721,7 +13622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="17">
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -13732,7 +13633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="17">
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0</v>
       </c>
@@ -13743,7 +13644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="17">
+    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -13754,7 +13655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -13765,7 +13666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="17">
+    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -13776,7 +13677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -13787,7 +13688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="17">
+    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -13798,7 +13699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17">
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0</v>
       </c>
@@ -13809,7 +13710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17">
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -13820,7 +13721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="17">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -13831,7 +13732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="17">
+    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -13842,7 +13743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="17">
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -13853,7 +13754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="17">
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0</v>
       </c>
@@ -13864,7 +13765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -13875,7 +13776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="17">
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -13886,7 +13787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -13897,7 +13798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="17">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -13908,7 +13809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="17">
+    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -13919,7 +13820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="17">
+    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -13930,7 +13831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -13941,7 +13842,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="17">
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0</v>
       </c>
@@ -13952,7 +13853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="17">
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -13963,7 +13864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17">
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -13974,7 +13875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="17">
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0</v>
       </c>
@@ -13985,7 +13886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17">
+    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -13996,7 +13897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17">
+    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -14007,7 +13908,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17">
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -14018,7 +13919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="17">
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -14029,7 +13930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17">
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0</v>
       </c>
@@ -14040,7 +13941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17">
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0</v>
       </c>
@@ -14051,7 +13952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17">
+    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -14062,7 +13963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17">
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -14073,7 +13974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17">
+    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -14084,7 +13985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="17">
+    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -14095,7 +13996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="17">
+    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -14106,7 +14007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17">
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -14117,7 +14018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17">
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -14128,7 +14029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -14139,7 +14040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="17">
+    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -14150,7 +14051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="17">
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -14161,7 +14062,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -14172,7 +14073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -14183,7 +14084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -14194,7 +14095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -14205,7 +14106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17">
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -14216,7 +14117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="17">
+    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -14227,7 +14128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="17">
+    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -14238,7 +14139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="17">
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -14249,7 +14150,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17">
+    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1</v>
       </c>
@@ -14260,7 +14161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="17">
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -14271,7 +14172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="17">
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -14282,7 +14183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="17">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -14293,7 +14194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="17">
+    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -14304,7 +14205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="17">
+    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1</v>
       </c>
@@ -14315,7 +14216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="17">
+    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
@@ -14326,7 +14227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="17">
+    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1</v>
       </c>
@@ -14337,7 +14238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="17">
+    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
@@ -14348,7 +14249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="17">
+    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -14359,7 +14260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="17">
+    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1</v>
       </c>
@@ -14370,7 +14271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="17">
+    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0</v>
       </c>
@@ -14381,7 +14282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="17">
+    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0</v>
       </c>
@@ -14392,7 +14293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="17">
+    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0</v>
       </c>
@@ -14403,7 +14304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="17">
+    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0</v>
       </c>
@@ -14414,7 +14315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="17">
+    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -14425,7 +14326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="17">
+    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1</v>
       </c>
@@ -14436,7 +14337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="17">
+    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1</v>
       </c>
@@ -14447,7 +14348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="17">
+    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1</v>
       </c>
@@ -14458,7 +14359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="17">
+    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -14469,7 +14370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="17">
+    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0</v>
       </c>
@@ -14480,7 +14381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="17">
+    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>1</v>
       </c>
@@ -14491,7 +14392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="17">
+    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>1</v>
       </c>
@@ -14502,7 +14403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="17">
+    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -14513,7 +14414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="17">
+    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>0</v>
       </c>
@@ -14524,7 +14425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="17">
+    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>1</v>
       </c>
@@ -14535,7 +14436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="17">
+    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>1</v>
       </c>
@@ -14546,7 +14447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="17">
+    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -14557,7 +14458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="17">
+    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -14568,7 +14469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="17">
+    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>1</v>
       </c>
@@ -14579,7 +14480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="17">
+    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -14590,7 +14491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="17">
+    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>1</v>
       </c>
@@ -14601,7 +14502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="17">
+    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -14612,7 +14513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="17">
+    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>1</v>
       </c>
@@ -14623,7 +14524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="17">
+    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>0</v>
       </c>
@@ -14634,7 +14535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="17">
+    <row r="256" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -14645,7 +14546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="17">
+    <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>1</v>
       </c>
@@ -14656,7 +14557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="17">
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -14667,7 +14568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="17">
+    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>1</v>
       </c>
@@ -14678,7 +14579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="17">
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -14689,7 +14590,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="17">
+    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>1</v>
       </c>
@@ -14700,7 +14601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="17">
+    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -14711,7 +14612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="17">
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -14722,7 +14623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="17">
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -14733,7 +14634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="17">
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>0</v>
       </c>
@@ -14744,7 +14645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="17">
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -14755,7 +14656,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="17">
+    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -14766,7 +14667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="17">
+    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>1</v>
       </c>
@@ -14777,7 +14678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="17">
+    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>0</v>
       </c>
@@ -14788,7 +14689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="17">
+    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -14799,7 +14700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="17">
+    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -14810,7 +14711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="17">
+    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>1</v>
       </c>
@@ -14821,7 +14722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="17">
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>1</v>
       </c>
@@ -14832,7 +14733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="17">
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>1</v>
       </c>
@@ -14843,7 +14744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="17">
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>0</v>
       </c>
@@ -14854,7 +14755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="17">
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>1</v>
       </c>
@@ -14865,7 +14766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="17">
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -14876,7 +14777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="17">
+    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>1</v>
       </c>
@@ -14887,7 +14788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="17">
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>1</v>
       </c>
@@ -14898,7 +14799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="17">
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>1</v>
       </c>
@@ -14909,7 +14810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="17">
+    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -14920,7 +14821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="17">
+    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>1</v>
       </c>
@@ -14931,7 +14832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="17">
+    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>1</v>
       </c>
@@ -14942,7 +14843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="17">
+    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>1</v>
       </c>
@@ -14953,7 +14854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="17">
+    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>0</v>
       </c>
@@ -14964,7 +14865,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="17">
+    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>1</v>
       </c>
@@ -14975,7 +14876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="17">
+    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>1</v>
       </c>
@@ -14986,7 +14887,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="17">
+    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>1</v>
       </c>
@@ -14997,7 +14898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="17">
+    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>0</v>
       </c>
@@ -15008,7 +14909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="17">
+    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -15019,7 +14920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="17">
+    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>1</v>
       </c>
@@ -15030,7 +14931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="17">
+    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>1</v>
       </c>
@@ -15041,7 +14942,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="17">
+    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>1</v>
       </c>
@@ -15052,7 +14953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="17">
+    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>1</v>
       </c>
@@ -15063,7 +14964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="17">
+    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>0</v>
       </c>
@@ -15074,7 +14975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="17">
+    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>1</v>
       </c>
@@ -15085,7 +14986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="17">
+    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>1</v>
       </c>
@@ -15096,7 +14997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="17">
+    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>1</v>
       </c>
@@ -15107,7 +15008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="17">
+    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>1</v>
       </c>
@@ -15118,7 +15019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="17">
+    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>1</v>
       </c>
@@ -15129,7 +15030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="17">
+    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>1</v>
       </c>
@@ -15140,7 +15041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="17">
+    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -15151,7 +15052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="17">
+    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0</v>
       </c>
@@ -15162,7 +15063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="17">
+    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1</v>
       </c>
@@ -15173,7 +15074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="17">
+    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1</v>
       </c>
@@ -15184,7 +15085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="17">
+    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0</v>
       </c>
@@ -15195,7 +15096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="17">
+    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1</v>
       </c>
@@ -15206,7 +15107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="17">
+    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -15217,7 +15118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="17">
+    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1</v>
       </c>
@@ -15228,7 +15129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="17">
+    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1</v>
       </c>
@@ -15239,7 +15140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="17">
+    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1</v>
       </c>
@@ -15250,7 +15151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="17">
+    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1</v>
       </c>
@@ -15261,7 +15162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="17">
+    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1</v>
       </c>
@@ -15272,7 +15173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="17">
+    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1</v>
       </c>
@@ -15283,7 +15184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="17">
+    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1</v>
       </c>
@@ -15294,7 +15195,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="17">
+    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1</v>
       </c>
@@ -15305,7 +15206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="17">
+    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1</v>
       </c>
@@ -15316,7 +15217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="17">
+    <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1</v>
       </c>
@@ -15327,7 +15228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="17">
+    <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -15338,7 +15239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="17">
+    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1</v>
       </c>
@@ -15349,7 +15250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="17">
+    <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0</v>
       </c>
@@ -15360,7 +15261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="17">
+    <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -15371,7 +15272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="17">
+    <row r="323" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0</v>
       </c>
@@ -15382,7 +15283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="17">
+    <row r="324" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -15393,7 +15294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="17">
+    <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1</v>
       </c>
@@ -15404,7 +15305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="17">
+    <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1</v>
       </c>
@@ -15415,7 +15316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="17">
+    <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1</v>
       </c>
@@ -15426,7 +15327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="17">
+    <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -15437,7 +15338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="17">
+    <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1</v>
       </c>
@@ -15448,7 +15349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="17">
+    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1</v>
       </c>
@@ -15459,7 +15360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="17">
+    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1</v>
       </c>
@@ -15470,7 +15371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="17">
+    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
@@ -15481,7 +15382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="17">
+    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0</v>
       </c>
@@ -15492,7 +15393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="17">
+    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1</v>
       </c>
@@ -15503,7 +15404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="17">
+    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1</v>
       </c>
@@ -15514,7 +15415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="17">
+    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0</v>
       </c>
@@ -15525,7 +15426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="17">
+    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1</v>
       </c>
@@ -15536,7 +15437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="17">
+    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1</v>
       </c>
@@ -15547,7 +15448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="17">
+    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1</v>
       </c>
@@ -15558,7 +15459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="17">
+    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1</v>
       </c>
@@ -15569,7 +15470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="17">
+    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1</v>
       </c>
@@ -15580,7 +15481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="17">
+    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -15591,7 +15492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="17">
+    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0</v>
       </c>
@@ -15602,7 +15503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="17">
+    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -15613,7 +15514,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="17">
+    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1</v>
       </c>
@@ -15624,7 +15525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="17">
+    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -15635,7 +15536,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="17">
+    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -15646,7 +15547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="17">
+    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1</v>
       </c>
@@ -15657,7 +15558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="17">
+    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1</v>
       </c>
@@ -15668,7 +15569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="17">
+    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1</v>
       </c>
@@ -15679,7 +15580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="17">
+    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -15690,7 +15591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="17">
+    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1</v>
       </c>
@@ -15701,7 +15602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="17">
+    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1</v>
       </c>
@@ -15712,7 +15613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="17">
+    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -15723,7 +15624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="17">
+    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -15734,7 +15635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="17">
+    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -15745,7 +15646,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="17">
+    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1</v>
       </c>
@@ -15756,7 +15657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="17">
+    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1</v>
       </c>
@@ -15767,7 +15668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="17">
+    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1</v>
       </c>
@@ -15778,7 +15679,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="17">
+    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1</v>
       </c>
@@ -15789,7 +15690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="17">
+    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0</v>
       </c>
@@ -15800,7 +15701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="17">
+    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0</v>
       </c>
@@ -15811,7 +15712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="17">
+    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0</v>
       </c>
@@ -15822,7 +15723,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="17">
+    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1</v>
       </c>
@@ -15833,7 +15734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="17">
+    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1</v>
       </c>
@@ -15844,7 +15745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="17">
+    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1</v>
       </c>
@@ -15855,7 +15756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="17">
+    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1</v>
       </c>
@@ -15866,7 +15767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="17">
+    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1</v>
       </c>
@@ -15877,7 +15778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="17">
+    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0</v>
       </c>
@@ -15888,7 +15789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="17">
+    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
@@ -15899,7 +15800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="17">
+    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0</v>
       </c>
@@ -15910,7 +15811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="17">
+    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0</v>
       </c>
@@ -15921,7 +15822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="17">
+    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1</v>
       </c>
@@ -15932,7 +15833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="17">
+    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1</v>
       </c>
@@ -15943,7 +15844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="17">
+    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0</v>
       </c>
@@ -15954,7 +15855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="17">
+    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1</v>
       </c>
@@ -15965,7 +15866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="17">
+    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>1</v>
       </c>
@@ -15976,7 +15877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="17">
+    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1</v>
       </c>
@@ -15987,7 +15888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="17">
+    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1</v>
       </c>
@@ -15998,7 +15899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="17">
+    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -16009,7 +15910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="17">
+    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0</v>
       </c>
@@ -16020,7 +15921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="17">
+    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0</v>
       </c>
@@ -16031,7 +15932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="17">
+    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0</v>
       </c>
@@ -16042,7 +15943,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="17">
+    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1</v>
       </c>
@@ -16053,7 +15954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="17">
+    <row r="385" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1</v>
       </c>
@@ -16064,7 +15965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="17">
+    <row r="386" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1</v>
       </c>
@@ -16075,7 +15976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="17">
+    <row r="387" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1</v>
       </c>
@@ -16086,7 +15987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="17">
+    <row r="388" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1</v>
       </c>
@@ -16097,7 +15998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="17">
+    <row r="389" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0</v>
       </c>
@@ -16108,7 +16009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="17">
+    <row r="390" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1</v>
       </c>
@@ -16119,7 +16020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="17">
+    <row r="391" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
@@ -16130,7 +16031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="17">
+    <row r="392" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0</v>
       </c>
@@ -16141,7 +16042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="17">
+    <row r="393" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0</v>
       </c>
@@ -16152,7 +16053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="17">
+    <row r="394" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1</v>
       </c>
@@ -16163,7 +16064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="17">
+    <row r="395" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -16174,7 +16075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="17">
+    <row r="396" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1</v>
       </c>
@@ -16185,7 +16086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="17">
+    <row r="397" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1</v>
       </c>
@@ -16196,7 +16097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="17">
+    <row r="398" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1</v>
       </c>
@@ -16207,7 +16108,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="17">
+    <row r="399" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0</v>
       </c>
@@ -16218,7 +16119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="17">
+    <row r="400" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1</v>
       </c>
@@ -16229,7 +16130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="17">
+    <row r="401" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0</v>
       </c>
@@ -16240,7 +16141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="17">
+    <row r="402" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0</v>
       </c>
@@ -16251,7 +16152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="17">
+    <row r="403" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0</v>
       </c>
@@ -16262,7 +16163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="17">
+    <row r="404" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1</v>
       </c>
@@ -16273,7 +16174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="17">
+    <row r="405" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1</v>
       </c>
@@ -16284,7 +16185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="17">
+    <row r="406" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1</v>
       </c>
@@ -16295,7 +16196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="17">
+    <row r="407" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1</v>
       </c>
@@ -16306,7 +16207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="17">
+    <row r="408" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1</v>
       </c>
@@ -16317,7 +16218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="17">
+    <row r="409" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0</v>
       </c>
@@ -16328,7 +16229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="17">
+    <row r="410" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1</v>
       </c>
@@ -16339,7 +16240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="17">
+    <row r="411" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0</v>
       </c>
@@ -16350,7 +16251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="17">
+    <row r="412" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0</v>
       </c>
@@ -16361,7 +16262,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="17">
+    <row r="413" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1</v>
       </c>
@@ -16372,7 +16273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="17">
+    <row r="414" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1</v>
       </c>
@@ -16383,7 +16284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="17">
+    <row r="415" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>1</v>
       </c>
@@ -16394,7 +16295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="17">
+    <row r="416" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1</v>
       </c>
@@ -16405,7 +16306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="17">
+    <row r="417" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>1</v>
       </c>
@@ -16416,7 +16317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="17">
+    <row r="418" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1</v>
       </c>
@@ -16427,7 +16328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="17">
+    <row r="419" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1</v>
       </c>
@@ -16438,7 +16339,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="17">
+    <row r="420" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1</v>
       </c>
@@ -16449,7 +16350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1</v>
       </c>
@@ -16460,220 +16361,220 @@
         <v>81</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B422" s="9"/>
       <c r="C422" s="10"/>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B423" s="9"/>
       <c r="C423" s="10"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B424" s="9"/>
       <c r="C424" s="10"/>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B425" s="9"/>
       <c r="C425" s="10"/>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B426" s="9"/>
       <c r="C426" s="10"/>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B427" s="9"/>
       <c r="C427" s="10"/>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B428" s="9"/>
       <c r="C428" s="10"/>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B429" s="9"/>
       <c r="C429" s="10"/>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B430" s="9"/>
       <c r="C430" s="10"/>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B431" s="9"/>
       <c r="C431" s="10"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B432" s="9"/>
       <c r="C432" s="10"/>
     </row>
-    <row r="433" spans="2:3">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="9"/>
       <c r="C433" s="10"/>
     </row>
-    <row r="434" spans="2:3">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B434" s="9"/>
       <c r="C434" s="10"/>
     </row>
-    <row r="435" spans="2:3">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B435" s="9"/>
       <c r="C435" s="10"/>
     </row>
-    <row r="436" spans="2:3">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="9"/>
       <c r="C436" s="10"/>
     </row>
-    <row r="437" spans="2:3">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B437" s="9"/>
       <c r="C437" s="10"/>
     </row>
-    <row r="438" spans="2:3">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="9"/>
       <c r="C438" s="10"/>
     </row>
-    <row r="439" spans="2:3">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B439" s="9"/>
       <c r="C439" s="10"/>
     </row>
-    <row r="440" spans="2:3">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="9"/>
       <c r="C440" s="10"/>
     </row>
-    <row r="441" spans="2:3">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="9"/>
       <c r="C441" s="10"/>
     </row>
-    <row r="442" spans="2:3">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B442" s="9"/>
       <c r="C442" s="10"/>
     </row>
-    <row r="443" spans="2:3">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="9"/>
       <c r="C443" s="10"/>
     </row>
-    <row r="444" spans="2:3">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="9"/>
       <c r="C444" s="10"/>
     </row>
-    <row r="445" spans="2:3">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B445" s="9"/>
       <c r="C445" s="10"/>
     </row>
-    <row r="446" spans="2:3">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B446" s="9"/>
       <c r="C446" s="10"/>
     </row>
-    <row r="447" spans="2:3">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B447" s="9"/>
       <c r="C447" s="10"/>
     </row>
-    <row r="448" spans="2:3">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="9"/>
       <c r="C448" s="10"/>
     </row>
-    <row r="449" spans="2:3">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="9"/>
       <c r="C449" s="10"/>
     </row>
-    <row r="450" spans="2:3">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450" s="9"/>
       <c r="C450" s="10"/>
     </row>
-    <row r="451" spans="2:3">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451" s="9"/>
       <c r="C451" s="10"/>
     </row>
-    <row r="452" spans="2:3">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452" s="9"/>
       <c r="C452" s="10"/>
     </row>
-    <row r="453" spans="2:3">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453" s="9"/>
       <c r="C453" s="10"/>
     </row>
-    <row r="454" spans="2:3">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="11"/>
       <c r="C454" s="10"/>
     </row>
-    <row r="455" spans="2:3">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="11"/>
       <c r="C455" s="10"/>
     </row>
-    <row r="456" spans="2:3">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456" s="11"/>
       <c r="C456" s="10"/>
     </row>
-    <row r="457" spans="2:3">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457" s="11"/>
       <c r="C457" s="10"/>
     </row>
-    <row r="458" spans="2:3">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C458" s="10"/>
     </row>
-    <row r="459" spans="2:3">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C459" s="10"/>
     </row>
-    <row r="460" spans="2:3">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C460" s="10"/>
     </row>
-    <row r="461" spans="2:3">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C461" s="10"/>
     </row>
-    <row r="462" spans="2:3">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C462" s="10"/>
     </row>
-    <row r="463" spans="2:3">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C463" s="10"/>
     </row>
-    <row r="464" spans="2:3">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C464" s="10"/>
     </row>
-    <row r="465" spans="3:3">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C465" s="10"/>
     </row>
-    <row r="466" spans="3:3">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C466" s="10"/>
     </row>
-    <row r="467" spans="3:3">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C467" s="10"/>
     </row>
-    <row r="468" spans="3:3">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C468" s="10"/>
     </row>
-    <row r="469" spans="3:3">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C469" s="10"/>
     </row>
-    <row r="470" spans="3:3">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C470" s="10"/>
     </row>
-    <row r="471" spans="3:3">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C471" s="10"/>
     </row>
-    <row r="472" spans="3:3">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C472" s="10"/>
     </row>
-    <row r="473" spans="3:3">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C473" s="10"/>
     </row>
-    <row r="474" spans="3:3">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C474" s="10"/>
     </row>
-    <row r="475" spans="3:3">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C475" s="10"/>
     </row>
-    <row r="476" spans="3:3">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C476" s="10"/>
     </row>
-    <row r="477" spans="3:3">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C477" s="10"/>
     </row>
-    <row r="478" spans="3:3">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C478" s="10"/>
     </row>
-    <row r="479" spans="3:3">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C479" s="10"/>
     </row>
-    <row r="480" spans="3:3">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C480" s="10"/>
     </row>
-    <row r="481" spans="3:3">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C481" s="10"/>
     </row>
   </sheetData>

--- a/Results/orientation-change-results.xlsx
+++ b/Results/orientation-change-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90DC5C-30FA-634A-9CB4-E1DC72F54112}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4A485-8390-F743-A87C-62C75FAD910B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{B9D9EF45-235E-C34A-AB63-58AF9355DAFF}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="22040" windowHeight="16940" activeTab="5" xr2:uid="{B9D9EF45-235E-C34A-AB63-58AF9355DAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="shoppinglist" sheetId="1" r:id="rId1"/>
@@ -1620,7 +1620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4213,17 +4213,17 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -5264,16 +5264,16 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" s="2" t="s">
         <v>108</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="2" t="s">
         <v>120</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="2" t="s">
         <v>122</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="2" t="s">
         <v>127</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="2" t="s">
         <v>129</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="2" t="s">
         <v>133</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="2" t="s">
         <v>134</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="2" t="s">
         <v>136</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="2" t="s">
         <v>137</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="2" t="s">
         <v>138</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="2" t="s">
         <v>144</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="2" t="s">
         <v>148</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="2" t="s">
         <v>149</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="2" t="s">
         <v>152</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="2" t="s">
         <v>153</v>
       </c>
@@ -6314,10 +6314,10 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
@@ -6325,7 +6325,7 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="5" t="s">
         <v>156</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="5" t="s">
         <v>157</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="5" t="s">
         <v>158</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="5" t="s">
         <v>159</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="5" t="s">
         <v>160</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="5" t="s">
         <v>162</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="5" t="s">
         <v>163</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="5" t="s">
         <v>165</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="5" t="s">
         <v>166</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="5" t="s">
         <v>167</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="5" t="s">
         <v>168</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="5" t="s">
         <v>169</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="5" t="s">
         <v>170</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="5" t="s">
         <v>171</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="5" t="s">
         <v>172</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="5" t="s">
         <v>173</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="5" t="s">
         <v>174</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="5" t="s">
         <v>175</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="5" t="s">
         <v>176</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="5" t="s">
         <v>177</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="5" t="s">
         <v>178</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="5" t="s">
         <v>179</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="5" t="s">
         <v>180</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="5" t="s">
         <v>181</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="5" t="s">
         <v>182</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="5" t="s">
         <v>183</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="5" t="s">
         <v>184</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="5" t="s">
         <v>185</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="5" t="s">
         <v>186</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="5" t="s">
         <v>187</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="5" t="s">
         <v>188</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="5" t="s">
         <v>189</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="5" t="s">
         <v>190</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="5" t="s">
         <v>191</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="5" t="s">
         <v>192</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="5" t="s">
         <v>193</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="5" t="s">
         <v>194</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="5" t="s">
         <v>195</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="5" t="s">
         <v>196</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="5" t="s">
         <v>197</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="5" t="s">
         <v>198</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="5" t="s">
         <v>199</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="5" t="s">
         <v>200</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="5" t="s">
         <v>201</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="5" t="s">
         <v>202</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="5" t="s">
         <v>203</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="5" t="s">
         <v>204</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="5" t="s">
         <v>205</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="5" t="s">
         <v>206</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="5" t="s">
         <v>207</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="5" t="s">
         <v>208</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="5" t="s">
         <v>209</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="5" t="s">
         <v>210</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="5" t="s">
         <v>211</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="5" t="s">
         <v>212</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="5" t="s">
         <v>213</v>
       </c>
@@ -7366,17 +7366,17 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="2" t="s">
         <v>226</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="2" t="s">
         <v>227</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="2" t="s">
         <v>228</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="2" t="s">
         <v>229</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="2" t="s">
         <v>230</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="2" t="s">
         <v>232</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="2" t="s">
         <v>233</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="2" t="s">
         <v>234</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="2" t="s">
         <v>235</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="2" t="s">
         <v>236</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="2" t="s">
         <v>237</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="2" t="s">
         <v>238</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="2" t="s">
         <v>239</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="2" t="s">
         <v>242</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="2" t="s">
         <v>243</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="2" t="s">
         <v>245</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="2" t="s">
         <v>246</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="2" t="s">
         <v>247</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="2" t="s">
         <v>248</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="2" t="s">
         <v>249</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="2" t="s">
         <v>250</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
         <v>251</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="2" t="s">
         <v>252</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="2" t="s">
         <v>253</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="2" t="s">
         <v>254</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="2" t="s">
         <v>255</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
         <v>256</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="2" t="s">
         <v>257</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="2" t="s">
         <v>258</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="2" t="s">
         <v>259</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="2" t="s">
         <v>260</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="2" t="s">
         <v>261</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="2" t="s">
         <v>262</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="2" t="s">
         <v>263</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="2" t="s">
         <v>264</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="2" t="s">
         <v>265</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="2" t="s">
         <v>266</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="2" t="s">
         <v>267</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="2" t="s">
         <v>268</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="2" t="s">
         <v>269</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="2" t="s">
         <v>270</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="2" t="s">
         <v>271</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="2" t="s">
         <v>272</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="2" t="s">
         <v>273</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="2" t="s">
         <v>274</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="2" t="s">
         <v>275</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="2" t="s">
         <v>276</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="2" t="s">
         <v>277</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="2" t="s">
         <v>278</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="2" t="s">
         <v>279</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="2" t="s">
         <v>280</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="2" t="s">
         <v>281</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="2" t="s">
         <v>282</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="2" t="s">
         <v>283</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="2" t="s">
         <v>284</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="2" t="s">
         <v>285</v>
       </c>
@@ -8417,17 +8417,18 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="2" t="s">
         <v>298</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="2" t="s">
         <v>299</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="2" t="s">
         <v>300</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="2" t="s">
         <v>301</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="2" t="s">
         <v>303</v>
       </c>
@@ -8630,7 +8631,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="2" t="s">
         <v>304</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="2" t="s">
         <v>305</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="2" t="s">
         <v>306</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="2" t="s">
         <v>307</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="2" t="s">
         <v>308</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="2" t="s">
         <v>309</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="2" t="s">
         <v>310</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="2" t="s">
         <v>311</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="2" t="s">
         <v>312</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="2" t="s">
         <v>313</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="2" t="s">
         <v>314</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="2" t="s">
         <v>315</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="2" t="s">
         <v>316</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="2" t="s">
         <v>317</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="2" t="s">
         <v>318</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="2" t="s">
         <v>319</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="2" t="s">
         <v>320</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="2" t="s">
         <v>321</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="2" t="s">
         <v>322</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
         <v>323</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="2" t="s">
         <v>324</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="2" t="s">
         <v>325</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="2" t="s">
         <v>326</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="2" t="s">
         <v>327</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
         <v>328</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="2" t="s">
         <v>329</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="2" t="s">
         <v>330</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="2" t="s">
         <v>331</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="2" t="s">
         <v>332</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="2" t="s">
         <v>333</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="2" t="s">
         <v>334</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="2" t="s">
         <v>335</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="2" t="s">
         <v>336</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="2" t="s">
         <v>337</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="2" t="s">
         <v>338</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="2" t="s">
         <v>339</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="2" t="s">
         <v>340</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="2" t="s">
         <v>341</v>
       </c>
@@ -9166,7 +9167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="2" t="s">
         <v>342</v>
       </c>
@@ -9180,7 +9181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="2" t="s">
         <v>344</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="2" t="s">
         <v>345</v>
       </c>
@@ -9222,7 +9223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="2" t="s">
         <v>346</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="2" t="s">
         <v>347</v>
       </c>
@@ -9250,7 +9251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="2" t="s">
         <v>348</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="2" t="s">
         <v>349</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="2" t="s">
         <v>350</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="2" t="s">
         <v>351</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="2" t="s">
         <v>352</v>
       </c>
@@ -9320,7 +9321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="2" t="s">
         <v>353</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="2" t="s">
         <v>354</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="2" t="s">
         <v>355</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="2" t="s">
         <v>357</v>
       </c>
@@ -9467,18 +9468,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6568B7-B5AB-9149-9A66-0DAE535D2212}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="2" t="s">
         <v>382</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="2" t="s">
         <v>383</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="2" t="s">
         <v>384</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="2" t="s">
         <v>385</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="2" t="s">
         <v>386</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="2" t="s">
         <v>387</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="2" t="s">
         <v>388</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="2" t="s">
         <v>389</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="2" t="s">
         <v>390</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="2" t="s">
         <v>391</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="2" t="s">
         <v>392</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="2" t="s">
         <v>393</v>
       </c>
@@ -9769,7 +9770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="2" t="s">
         <v>394</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="2" t="s">
         <v>395</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" s="2" t="s">
         <v>396</v>
       </c>
@@ -9811,7 +9812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="2" t="s">
         <v>397</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="2" t="s">
         <v>398</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="2" t="s">
         <v>399</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="2" t="s">
         <v>400</v>
       </c>
@@ -9867,7 +9868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="2" t="s">
         <v>401</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="2" t="s">
         <v>402</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="2" t="s">
         <v>403</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="2" t="s">
         <v>404</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="2" t="s">
         <v>405</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="2" t="s">
         <v>406</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
         <v>407</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="2" t="s">
         <v>408</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="2" t="s">
         <v>409</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="2" t="s">
         <v>410</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="2" t="s">
         <v>411</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
         <v>412</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="2" t="s">
         <v>413</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="2" t="s">
         <v>414</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="2" t="s">
         <v>415</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="2" t="s">
         <v>416</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="2" t="s">
         <v>417</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="2" t="s">
         <v>418</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="2" t="s">
         <v>419</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="2" t="s">
         <v>420</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="2" t="s">
         <v>421</v>
       </c>
@@ -10161,7 +10162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="2" t="s">
         <v>422</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="2" t="s">
         <v>423</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="2" t="s">
         <v>424</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="2" t="s">
         <v>425</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="2" t="s">
         <v>426</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="2" t="s">
         <v>427</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="2" t="s">
         <v>428</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="2" t="s">
         <v>429</v>
       </c>
@@ -10273,7 +10274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="2" t="s">
         <v>430</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="2" t="s">
         <v>431</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="2" t="s">
         <v>432</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="2" t="s">
         <v>433</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="2" t="s">
         <v>434</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="2" t="s">
         <v>435</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="2" t="s">
         <v>436</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="2" t="s">
         <v>437</v>
       </c>
@@ -10385,7 +10386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="2" t="s">
         <v>438</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="2" t="s">
         <v>439</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="2" t="s">
         <v>440</v>
       </c>
@@ -10427,7 +10428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="2" t="s">
         <v>441</v>
       </c>
@@ -10518,17 +10519,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220DE8E-F42C-C349-BD85-D7CA51F8F176}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="10" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10557,7 +10558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="2" t="s">
         <v>454</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="2" t="s">
         <v>456</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="2" t="s">
         <v>457</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="2" t="s">
         <v>458</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="2" t="s">
         <v>459</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="2" t="s">
         <v>460</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="2" t="s">
         <v>461</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="2" t="s">
         <v>462</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="2" t="s">
         <v>463</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="2" t="s">
         <v>464</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="2" t="s">
         <v>465</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="2" t="s">
         <v>466</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="2" t="s">
         <v>467</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" s="2" t="s">
         <v>468</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="2" t="s">
         <v>469</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="2" t="s">
         <v>470</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="2" t="s">
         <v>471</v>
       </c>
@@ -10903,7 +10904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="2" t="s">
         <v>472</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="2" t="s">
         <v>473</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="2" t="s">
         <v>474</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="2" t="s">
         <v>475</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="2" t="s">
         <v>476</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="2" t="s">
         <v>477</v>
       </c>
@@ -10987,7 +10988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="2" t="s">
         <v>478</v>
       </c>
@@ -11001,7 +11002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
         <v>479</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="2" t="s">
         <v>480</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="2" t="s">
         <v>481</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="2" t="s">
         <v>482</v>
       </c>
@@ -11057,7 +11058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="2" t="s">
         <v>483</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
         <v>484</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="2" t="s">
         <v>485</v>
       </c>
@@ -11099,7 +11100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="2" t="s">
         <v>486</v>
       </c>
@@ -11113,7 +11114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="2" t="s">
         <v>487</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="2" t="s">
         <v>488</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="2" t="s">
         <v>489</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="2" t="s">
         <v>490</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="2" t="s">
         <v>491</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="2" t="s">
         <v>492</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="2" t="s">
         <v>493</v>
       </c>
@@ -11211,7 +11212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="2" t="s">
         <v>494</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="2" t="s">
         <v>495</v>
       </c>
@@ -11239,7 +11240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="2" t="s">
         <v>496</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="2" t="s">
         <v>497</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="2" t="s">
         <v>498</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="2" t="s">
         <v>499</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="2" t="s">
         <v>500</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="2" t="s">
         <v>501</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="2" t="s">
         <v>502</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="2" t="s">
         <v>503</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="2" t="s">
         <v>504</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="2" t="s">
         <v>505</v>
       </c>
@@ -11379,7 +11380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="2" t="s">
         <v>506</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="2" t="s">
         <v>507</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="2" t="s">
         <v>508</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="2" t="s">
         <v>509</v>
       </c>
@@ -11435,7 +11436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="2" t="s">
         <v>510</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="2" t="s">
         <v>511</v>
       </c>
@@ -11463,7 +11464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="2" t="s">
         <v>512</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="2" t="s">
         <v>513</v>
       </c>
@@ -11572,12 +11573,12 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>514</v>
       </c>
@@ -11591,7 +11592,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
         <v>518</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
         <v>519</v>
       </c>
@@ -11625,7 +11626,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="15" t="s">
         <v>520</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="15" t="s">
         <v>521</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
         <v>522</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
         <v>523</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="17" t="s">
         <v>524</v>
       </c>
@@ -11724,13 +11725,13 @@
       <selection activeCell="A362" sqref="A362:C421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11796,7 +11797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11829,7 +11830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11884,7 +11885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15">
         <v>0</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18">
         <v>0</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19">
         <v>1</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20">
         <v>0</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17">
       <c r="A21">
         <v>1</v>
       </c>
@@ -11961,7 +11962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="17">
       <c r="A23">
         <v>0</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24">
         <v>0</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12005,7 +12006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="17">
       <c r="A26">
         <v>1</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17">
       <c r="A27">
         <v>1</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28">
         <v>1</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="17">
       <c r="A29">
         <v>0</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30">
         <v>1</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17">
       <c r="A31">
         <v>1</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32">
         <v>1</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33">
         <v>0</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="17">
       <c r="A34">
         <v>0</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17">
       <c r="A35">
         <v>0</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="17">
       <c r="A36">
         <v>0</v>
       </c>
@@ -12126,7 +12127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="17">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="17">
       <c r="A38">
         <v>0</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="17">
       <c r="A39">
         <v>0</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="17">
       <c r="A40">
         <v>0</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17">
       <c r="A41">
         <v>1</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17">
       <c r="A42">
         <v>1</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="17">
       <c r="A43">
         <v>0</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="17">
       <c r="A44">
         <v>0</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="17">
       <c r="A45">
         <v>1</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="17">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12236,7 +12237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="17">
       <c r="A47">
         <v>1</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="17">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="17">
       <c r="A49">
         <v>0</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="17">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="17">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12291,7 +12292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="17">
       <c r="A52">
         <v>1</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="17">
       <c r="A53">
         <v>1</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="17">
       <c r="A54">
         <v>0</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="17">
       <c r="A55">
         <v>0</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="17">
       <c r="A56">
         <v>1</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="17">
       <c r="A57">
         <v>1</v>
       </c>
@@ -12357,7 +12358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="17">
       <c r="A58">
         <v>0</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="17">
       <c r="A60">
         <v>1</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="17">
       <c r="A61">
         <v>1</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="17">
       <c r="A62">
         <v>0</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="17">
       <c r="A63">
         <v>0</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="17">
       <c r="A64">
         <v>0</v>
       </c>
@@ -12434,7 +12435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="17">
       <c r="A65">
         <v>0</v>
       </c>
@@ -12445,7 +12446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17">
       <c r="A66">
         <v>0</v>
       </c>
@@ -12456,7 +12457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="17">
       <c r="A67">
         <v>0</v>
       </c>
@@ -12467,7 +12468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="17">
       <c r="A68">
         <v>1</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="17">
       <c r="A69">
         <v>0</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="17">
       <c r="A70">
         <v>0</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="17">
       <c r="A71">
         <v>0</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="17">
       <c r="A72">
         <v>1</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="17">
       <c r="A73">
         <v>1</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="17">
       <c r="A74">
         <v>1</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="17">
       <c r="A75">
         <v>1</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="17">
       <c r="A76">
         <v>0</v>
       </c>
@@ -12566,7 +12567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="17">
       <c r="A77">
         <v>1</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="17">
       <c r="A78">
         <v>1</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="17">
       <c r="A79">
         <v>1</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="17">
       <c r="A80">
         <v>1</v>
       </c>
@@ -12610,7 +12611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="17">
       <c r="A81">
         <v>1</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="17">
       <c r="A82">
         <v>0</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="17">
       <c r="A83">
         <v>0</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="17">
       <c r="A84">
         <v>0</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="17">
       <c r="A85">
         <v>0</v>
       </c>
@@ -12665,7 +12666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="17">
       <c r="A86">
         <v>0</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="17">
       <c r="A87">
         <v>0</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="17">
       <c r="A88">
         <v>1</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="17">
       <c r="A89">
         <v>1</v>
       </c>
@@ -12709,7 +12710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="17">
       <c r="A90">
         <v>0</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="17">
       <c r="A91">
         <v>0</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="17">
       <c r="A92">
         <v>0</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="17">
       <c r="A93">
         <v>0</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="17">
       <c r="A94">
         <v>0</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="17">
       <c r="A95">
         <v>0</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="17">
       <c r="A96">
         <v>0</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="17">
       <c r="A97">
         <v>0</v>
       </c>
@@ -12797,7 +12798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="17">
       <c r="A98">
         <v>1</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="17">
       <c r="A99">
         <v>0</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="17">
       <c r="A100">
         <v>0</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="17">
       <c r="A101">
         <v>0</v>
       </c>
@@ -12841,7 +12842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="17">
       <c r="A102">
         <v>0</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="17">
       <c r="A103">
         <v>0</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="17">
       <c r="A104">
         <v>0</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="17">
       <c r="A105">
         <v>0</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="17">
       <c r="A106">
         <v>0</v>
       </c>
@@ -12896,7 +12897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="17">
       <c r="A107">
         <v>0</v>
       </c>
@@ -12907,7 +12908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="17">
       <c r="A108">
         <v>1</v>
       </c>
@@ -12918,7 +12919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="17">
       <c r="A109">
         <v>1</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="17">
       <c r="A110">
         <v>0</v>
       </c>
@@ -12940,7 +12941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="17">
       <c r="A111">
         <v>0</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="17">
       <c r="A112">
         <v>1</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="17">
       <c r="A113">
         <v>1</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="17">
       <c r="A114">
         <v>1</v>
       </c>
@@ -12984,7 +12985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="17">
       <c r="A115">
         <v>1</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="17">
       <c r="A116">
         <v>0</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="17">
       <c r="A117">
         <v>1</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="17">
       <c r="A118">
         <v>1</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="17">
       <c r="A119">
         <v>1</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="17">
       <c r="A120">
         <v>1</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="17">
       <c r="A121">
         <v>1</v>
       </c>
@@ -13061,7 +13062,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="17">
       <c r="A122">
         <v>1</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="17">
       <c r="A123">
         <v>1</v>
       </c>
@@ -13083,7 +13084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="17">
       <c r="A124">
         <v>1</v>
       </c>
@@ -13094,7 +13095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="17">
       <c r="A125">
         <v>0</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="17">
       <c r="A126">
         <v>0</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="17">
       <c r="A127">
         <v>1</v>
       </c>
@@ -13127,7 +13128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="17">
       <c r="A128">
         <v>1</v>
       </c>
@@ -13138,7 +13139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="17">
       <c r="A129">
         <v>0</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="17">
       <c r="A130">
         <v>1</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="17">
       <c r="A131">
         <v>1</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="17">
       <c r="A132">
         <v>1</v>
       </c>
@@ -13182,7 +13183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="17">
       <c r="A133">
         <v>1</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="17">
       <c r="A134">
         <v>1</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="17">
       <c r="A135">
         <v>1</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="17">
       <c r="A136">
         <v>0</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="17">
       <c r="A137">
         <v>1</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="17">
       <c r="A138">
         <v>1</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="17">
       <c r="A139">
         <v>0</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="17">
       <c r="A140">
         <v>1</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="17">
       <c r="A141">
         <v>1</v>
       </c>
@@ -13281,7 +13282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="17">
       <c r="A142">
         <v>1</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="17">
       <c r="A143">
         <v>1</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="17">
       <c r="A144">
         <v>0</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="17">
       <c r="A145">
         <v>1</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="17">
       <c r="A146">
         <v>1</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="17">
       <c r="A147">
         <v>1</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="17">
       <c r="A148">
         <v>1</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="17">
       <c r="A149">
         <v>1</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="17">
       <c r="A150">
         <v>0</v>
       </c>
@@ -13380,7 +13381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="17">
       <c r="A151">
         <v>0</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="17">
       <c r="A152">
         <v>1</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="17">
       <c r="A153">
         <v>1</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="17">
       <c r="A154">
         <v>1</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="17">
       <c r="A155">
         <v>0</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="17">
       <c r="A156">
         <v>0</v>
       </c>
@@ -13446,7 +13447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="17">
       <c r="A157">
         <v>1</v>
       </c>
@@ -13457,7 +13458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="17">
       <c r="A158">
         <v>1</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="17">
       <c r="A159">
         <v>0</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="17">
       <c r="A160">
         <v>1</v>
       </c>
@@ -13490,7 +13491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="17">
       <c r="A161">
         <v>1</v>
       </c>
@@ -13501,7 +13502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="17">
       <c r="A162">
         <v>1</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="17">
       <c r="A163">
         <v>1</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="17">
       <c r="A164">
         <v>0</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="17">
       <c r="A165">
         <v>1</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="17">
       <c r="A166">
         <v>1</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="17">
       <c r="A167">
         <v>1</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="17">
       <c r="A168">
         <v>1</v>
       </c>
@@ -13578,7 +13579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="17">
       <c r="A169">
         <v>1</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="17">
       <c r="A170">
         <v>0</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="17">
       <c r="A171">
         <v>0</v>
       </c>
@@ -13611,7 +13612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="17">
       <c r="A172">
         <v>1</v>
       </c>
@@ -13622,7 +13623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="17">
       <c r="A173">
         <v>0</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="17">
       <c r="A174">
         <v>0</v>
       </c>
@@ -13644,7 +13645,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="17">
       <c r="A175">
         <v>1</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="17">
       <c r="A176">
         <v>1</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="17">
       <c r="A177">
         <v>1</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="17">
       <c r="A178">
         <v>1</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="17">
       <c r="A179">
         <v>0</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="17">
       <c r="A180">
         <v>0</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="17">
       <c r="A181">
         <v>1</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="17">
       <c r="A182">
         <v>1</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="17">
       <c r="A183">
         <v>1</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="17">
       <c r="A184">
         <v>0</v>
       </c>
@@ -13754,7 +13755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="17">
       <c r="A185">
         <v>0</v>
       </c>
@@ -13765,7 +13766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="17">
       <c r="A186">
         <v>1</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="17">
       <c r="A187">
         <v>1</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="17">
       <c r="A188">
         <v>1</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="17">
       <c r="A189">
         <v>1</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="17">
       <c r="A190">
         <v>1</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="17">
       <c r="A191">
         <v>1</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="17">
       <c r="A192">
         <v>0</v>
       </c>
@@ -13842,7 +13843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="17">
       <c r="A193">
         <v>0</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="17">
       <c r="A194">
         <v>0</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="17">
       <c r="A195">
         <v>0</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="17">
       <c r="A196">
         <v>0</v>
       </c>
@@ -13886,7 +13887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="17">
       <c r="A197">
         <v>1</v>
       </c>
@@ -13897,7 +13898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="17">
       <c r="A198">
         <v>1</v>
       </c>
@@ -13908,7 +13909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="17">
       <c r="A199">
         <v>1</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="17">
       <c r="A200">
         <v>0</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="17">
       <c r="A201">
         <v>0</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="17">
       <c r="A202">
         <v>0</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="17">
       <c r="A203">
         <v>1</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="17">
       <c r="A204">
         <v>0</v>
       </c>
@@ -13974,7 +13975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="17">
       <c r="A205">
         <v>0</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="17">
       <c r="A206">
         <v>1</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="17">
       <c r="A207">
         <v>1</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="17">
       <c r="A208">
         <v>1</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="17">
       <c r="A209">
         <v>1</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="17">
       <c r="A210">
         <v>1</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="17">
       <c r="A211">
         <v>1</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="17">
       <c r="A212">
         <v>1</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="17">
       <c r="A213">
         <v>1</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="17">
       <c r="A214">
         <v>0</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="17">
       <c r="A215">
         <v>0</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="17">
       <c r="A216">
         <v>1</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="17">
       <c r="A217">
         <v>1</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="17">
       <c r="A218">
         <v>1</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="17">
       <c r="A219">
         <v>1</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="17">
       <c r="A220">
         <v>1</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="17">
       <c r="A221">
         <v>1</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="17">
       <c r="A222">
         <v>0</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="17">
       <c r="A223">
         <v>1</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="17">
       <c r="A224">
         <v>0</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="17">
       <c r="A225">
         <v>0</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="17">
       <c r="A226">
         <v>1</v>
       </c>
@@ -14216,7 +14217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="17">
       <c r="A227">
         <v>1</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="17">
       <c r="A228">
         <v>1</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="17">
       <c r="A229">
         <v>1</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="17">
       <c r="A230">
         <v>1</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="17">
       <c r="A231">
         <v>1</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="17">
       <c r="A232">
         <v>0</v>
       </c>
@@ -14282,7 +14283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="17">
       <c r="A233">
         <v>0</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="17">
       <c r="A234">
         <v>0</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="17">
       <c r="A235">
         <v>0</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="17">
       <c r="A236">
         <v>0</v>
       </c>
@@ -14326,7 +14327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="17">
       <c r="A237">
         <v>1</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="17">
       <c r="A238">
         <v>1</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="17">
       <c r="A239">
         <v>1</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="17">
       <c r="A240">
         <v>0</v>
       </c>
@@ -14370,7 +14371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="17">
       <c r="A241">
         <v>0</v>
       </c>
@@ -14381,7 +14382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="17">
       <c r="A242" s="6">
         <v>1</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="17">
       <c r="A243" s="6">
         <v>1</v>
       </c>
@@ -14403,7 +14404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="17">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="17">
       <c r="A245" s="6">
         <v>0</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="17">
       <c r="A246" s="6">
         <v>1</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="17">
       <c r="A247" s="6">
         <v>1</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="17">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="17">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="17">
       <c r="A250" s="6">
         <v>1</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="17">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -14491,7 +14492,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="17">
       <c r="A252" s="6">
         <v>1</v>
       </c>
@@ -14502,7 +14503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="17">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="17">
       <c r="A254" s="6">
         <v>1</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="17">
       <c r="A255" s="6">
         <v>0</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="17">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="17">
       <c r="A257" s="6">
         <v>1</v>
       </c>
@@ -14557,7 +14558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="17">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="17">
       <c r="A259" s="6">
         <v>1</v>
       </c>
@@ -14579,7 +14580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="17">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="17">
       <c r="A261" s="6">
         <v>1</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="17">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -14612,7 +14613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="17">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="17">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -14634,7 +14635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="17">
       <c r="A265" s="6">
         <v>0</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="17">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="17">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="17">
       <c r="A268" s="6">
         <v>1</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="17">
       <c r="A269" s="6">
         <v>0</v>
       </c>
@@ -14689,7 +14690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="17">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="17">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="17">
       <c r="A272" s="6">
         <v>1</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="17">
       <c r="A273" s="6">
         <v>1</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="17">
       <c r="A274" s="6">
         <v>1</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="17">
       <c r="A275" s="6">
         <v>0</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="17">
       <c r="A276" s="6">
         <v>1</v>
       </c>
@@ -14766,7 +14767,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="17">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="17">
       <c r="A278" s="6">
         <v>1</v>
       </c>
@@ -14788,7 +14789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="17">
       <c r="A279" s="6">
         <v>1</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="17">
       <c r="A280" s="6">
         <v>1</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="17">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="17">
       <c r="A282" s="6">
         <v>1</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="17">
       <c r="A283" s="6">
         <v>1</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="17">
       <c r="A284" s="6">
         <v>1</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="17">
       <c r="A285" s="6">
         <v>0</v>
       </c>
@@ -14865,7 +14866,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="17">
       <c r="A286" s="6">
         <v>1</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="17">
       <c r="A287" s="6">
         <v>1</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="17">
       <c r="A288" s="6">
         <v>1</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="17">
       <c r="A289" s="6">
         <v>0</v>
       </c>
@@ -14909,7 +14910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="17">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -14920,7 +14921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="17">
       <c r="A291" s="6">
         <v>1</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="17">
       <c r="A292" s="6">
         <v>1</v>
       </c>
@@ -14942,7 +14943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="17">
       <c r="A293" s="6">
         <v>1</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="17">
       <c r="A294" s="6">
         <v>1</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="17">
       <c r="A295" s="6">
         <v>0</v>
       </c>
@@ -14975,7 +14976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="17">
       <c r="A296" s="6">
         <v>1</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="17">
       <c r="A297" s="6">
         <v>1</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="17">
       <c r="A298" s="6">
         <v>1</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="17">
       <c r="A299" s="6">
         <v>1</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="17">
       <c r="A300" s="6">
         <v>1</v>
       </c>
@@ -15030,7 +15031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="17">
       <c r="A301" s="6">
         <v>1</v>
       </c>
@@ -15041,7 +15042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="17">
       <c r="A302">
         <v>1</v>
       </c>
@@ -15052,7 +15053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="17">
       <c r="A303">
         <v>0</v>
       </c>
@@ -15063,7 +15064,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="17">
       <c r="A304">
         <v>1</v>
       </c>
@@ -15074,7 +15075,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="17">
       <c r="A305">
         <v>1</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="17">
       <c r="A306">
         <v>0</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="17">
       <c r="A307">
         <v>1</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="17">
       <c r="A308">
         <v>1</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="17">
       <c r="A309">
         <v>1</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="17">
       <c r="A310">
         <v>1</v>
       </c>
@@ -15140,7 +15141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="17">
       <c r="A311">
         <v>1</v>
       </c>
@@ -15151,7 +15152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="17">
       <c r="A312">
         <v>1</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="17">
       <c r="A313">
         <v>1</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="17">
       <c r="A314">
         <v>1</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="17">
       <c r="A315">
         <v>1</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="17">
       <c r="A316">
         <v>1</v>
       </c>
@@ -15206,7 +15207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="17">
       <c r="A317">
         <v>1</v>
       </c>
@@ -15217,7 +15218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="17">
       <c r="A318">
         <v>1</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="17">
       <c r="A319">
         <v>1</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="17">
       <c r="A320">
         <v>1</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="17">
       <c r="A321">
         <v>0</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="17">
       <c r="A322">
         <v>1</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="17">
       <c r="A323">
         <v>0</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="17">
       <c r="A324">
         <v>1</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="17">
       <c r="A325">
         <v>1</v>
       </c>
@@ -15305,7 +15306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="17">
       <c r="A326">
         <v>1</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="17">
       <c r="A327">
         <v>1</v>
       </c>
@@ -15327,7 +15328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="17">
       <c r="A328">
         <v>1</v>
       </c>
@@ -15338,7 +15339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="17">
       <c r="A329">
         <v>1</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="17">
       <c r="A330">
         <v>1</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="17">
       <c r="A331">
         <v>1</v>
       </c>
@@ -15371,7 +15372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="17">
       <c r="A332">
         <v>1</v>
       </c>
@@ -15382,7 +15383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="17">
       <c r="A333">
         <v>0</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="17">
       <c r="A334">
         <v>1</v>
       </c>
@@ -15404,7 +15405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="17">
       <c r="A335">
         <v>1</v>
       </c>
@@ -15415,7 +15416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="17">
       <c r="A336">
         <v>0</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="17">
       <c r="A337">
         <v>1</v>
       </c>
@@ -15437,7 +15438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="17">
       <c r="A338">
         <v>1</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="17">
       <c r="A339">
         <v>1</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="17">
       <c r="A340">
         <v>1</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="17">
       <c r="A341">
         <v>1</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="17">
       <c r="A342">
         <v>1</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="17">
       <c r="A343">
         <v>0</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="17">
       <c r="A344">
         <v>1</v>
       </c>
@@ -15514,7 +15515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="17">
       <c r="A345">
         <v>1</v>
       </c>
@@ -15525,7 +15526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="17">
       <c r="A346">
         <v>1</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="17">
       <c r="A347">
         <v>1</v>
       </c>
@@ -15547,7 +15548,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="17">
       <c r="A348">
         <v>1</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="17">
       <c r="A349">
         <v>1</v>
       </c>
@@ -15569,7 +15570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="17">
       <c r="A350">
         <v>1</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="17">
       <c r="A351">
         <v>1</v>
       </c>
@@ -15591,7 +15592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="17">
       <c r="A352">
         <v>1</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="17">
       <c r="A353">
         <v>1</v>
       </c>
@@ -15613,7 +15614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="17">
       <c r="A354">
         <v>1</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="17">
       <c r="A355">
         <v>1</v>
       </c>
@@ -15635,7 +15636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="17">
       <c r="A356">
         <v>1</v>
       </c>
@@ -15646,7 +15647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="17">
       <c r="A357">
         <v>1</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="17">
       <c r="A358">
         <v>1</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="17">
       <c r="A359">
         <v>1</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="17">
       <c r="A360">
         <v>1</v>
       </c>
@@ -15690,7 +15691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="17">
       <c r="A361">
         <v>0</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="17">
       <c r="A362">
         <v>0</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="17">
       <c r="A363">
         <v>0</v>
       </c>
@@ -15723,7 +15724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="17">
       <c r="A364">
         <v>1</v>
       </c>
@@ -15734,7 +15735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="17">
       <c r="A365">
         <v>1</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="17">
       <c r="A366">
         <v>1</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="17">
       <c r="A367">
         <v>1</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="17">
       <c r="A368">
         <v>1</v>
       </c>
@@ -15778,7 +15779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="17">
       <c r="A369">
         <v>0</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="17">
       <c r="A370">
         <v>1</v>
       </c>
@@ -15800,7 +15801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="17">
       <c r="A371">
         <v>0</v>
       </c>
@@ -15811,7 +15812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="17">
       <c r="A372">
         <v>0</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="17">
       <c r="A373">
         <v>1</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="17">
       <c r="A374">
         <v>1</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="17">
       <c r="A375">
         <v>0</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="17">
       <c r="A376">
         <v>1</v>
       </c>
@@ -15866,7 +15867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="17">
       <c r="A377">
         <v>1</v>
       </c>
@@ -15877,7 +15878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="17">
       <c r="A378">
         <v>1</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="17">
       <c r="A379">
         <v>1</v>
       </c>
@@ -15899,7 +15900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="17">
       <c r="A380">
         <v>1</v>
       </c>
@@ -15910,7 +15911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="17">
       <c r="A381">
         <v>0</v>
       </c>
@@ -15921,7 +15922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="17">
       <c r="A382">
         <v>0</v>
       </c>
@@ -15932,7 +15933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="17">
       <c r="A383">
         <v>0</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="17">
       <c r="A384">
         <v>1</v>
       </c>
@@ -15954,7 +15955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="17">
       <c r="A385">
         <v>1</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="17">
       <c r="A386">
         <v>1</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="17">
       <c r="A387">
         <v>1</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="17">
       <c r="A388">
         <v>1</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="17">
       <c r="A389">
         <v>0</v>
       </c>
@@ -16009,7 +16010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="17">
       <c r="A390">
         <v>1</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="17">
       <c r="A391">
         <v>0</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="17">
       <c r="A392">
         <v>0</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="17">
       <c r="A393">
         <v>0</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="17">
       <c r="A394">
         <v>1</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="17">
       <c r="A395">
         <v>0</v>
       </c>
@@ -16075,7 +16076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="17">
       <c r="A396">
         <v>1</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="17">
       <c r="A397">
         <v>1</v>
       </c>
@@ -16097,7 +16098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="17">
       <c r="A398">
         <v>1</v>
       </c>
@@ -16108,7 +16109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="17">
       <c r="A399">
         <v>0</v>
       </c>
@@ -16119,7 +16120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="17">
       <c r="A400">
         <v>1</v>
       </c>
@@ -16130,7 +16131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="17">
       <c r="A401">
         <v>0</v>
       </c>
@@ -16141,7 +16142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="17">
       <c r="A402">
         <v>0</v>
       </c>
@@ -16152,7 +16153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="17">
       <c r="A403">
         <v>0</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="17">
       <c r="A404">
         <v>1</v>
       </c>
@@ -16174,7 +16175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="17">
       <c r="A405">
         <v>1</v>
       </c>
@@ -16185,7 +16186,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="17">
       <c r="A406">
         <v>1</v>
       </c>
@@ -16196,7 +16197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="17">
       <c r="A407">
         <v>1</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="17">
       <c r="A408">
         <v>1</v>
       </c>
@@ -16218,7 +16219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="17">
       <c r="A409">
         <v>0</v>
       </c>
@@ -16229,7 +16230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="17">
       <c r="A410">
         <v>1</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="17">
       <c r="A411">
         <v>0</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="17">
       <c r="A412">
         <v>0</v>
       </c>
@@ -16262,7 +16263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="17">
       <c r="A413">
         <v>1</v>
       </c>
@@ -16273,7 +16274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="17">
       <c r="A414">
         <v>1</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="17">
       <c r="A415">
         <v>1</v>
       </c>
@@ -16295,7 +16296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="17">
       <c r="A416">
         <v>1</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="17">
       <c r="A417">
         <v>1</v>
       </c>
@@ -16317,7 +16318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="17">
       <c r="A418">
         <v>1</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="17">
       <c r="A419">
         <v>1</v>
       </c>
@@ -16339,7 +16340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="17">
       <c r="A420">
         <v>1</v>
       </c>
@@ -16350,7 +16351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421">
         <v>1</v>
       </c>
@@ -16361,220 +16362,220 @@
         <v>81</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="B422" s="9"/>
       <c r="C422" s="10"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="B423" s="9"/>
       <c r="C423" s="10"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="B424" s="9"/>
       <c r="C424" s="10"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="B425" s="9"/>
       <c r="C425" s="10"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="B426" s="9"/>
       <c r="C426" s="10"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="B427" s="9"/>
       <c r="C427" s="10"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="B428" s="9"/>
       <c r="C428" s="10"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="B429" s="9"/>
       <c r="C429" s="10"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="B430" s="9"/>
       <c r="C430" s="10"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="B431" s="9"/>
       <c r="C431" s="10"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3">
       <c r="B432" s="9"/>
       <c r="C432" s="10"/>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:3">
       <c r="B433" s="9"/>
       <c r="C433" s="10"/>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:3">
       <c r="B434" s="9"/>
       <c r="C434" s="10"/>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:3">
       <c r="B435" s="9"/>
       <c r="C435" s="10"/>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:3">
       <c r="B436" s="9"/>
       <c r="C436" s="10"/>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:3">
       <c r="B437" s="9"/>
       <c r="C437" s="10"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:3">
       <c r="B438" s="9"/>
       <c r="C438" s="10"/>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:3">
       <c r="B439" s="9"/>
       <c r="C439" s="10"/>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:3">
       <c r="B440" s="9"/>
       <c r="C440" s="10"/>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:3">
       <c r="B441" s="9"/>
       <c r="C441" s="10"/>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:3">
       <c r="B442" s="9"/>
       <c r="C442" s="10"/>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:3">
       <c r="B443" s="9"/>
       <c r="C443" s="10"/>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:3">
       <c r="B444" s="9"/>
       <c r="C444" s="10"/>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:3">
       <c r="B445" s="9"/>
       <c r="C445" s="10"/>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:3">
       <c r="B446" s="9"/>
       <c r="C446" s="10"/>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:3">
       <c r="B447" s="9"/>
       <c r="C447" s="10"/>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:3">
       <c r="B448" s="9"/>
       <c r="C448" s="10"/>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:3">
       <c r="B449" s="9"/>
       <c r="C449" s="10"/>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:3">
       <c r="B450" s="9"/>
       <c r="C450" s="10"/>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:3">
       <c r="B451" s="9"/>
       <c r="C451" s="10"/>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:3">
       <c r="B452" s="9"/>
       <c r="C452" s="10"/>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:3">
       <c r="B453" s="9"/>
       <c r="C453" s="10"/>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:3">
       <c r="B454" s="11"/>
       <c r="C454" s="10"/>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:3">
       <c r="B455" s="11"/>
       <c r="C455" s="10"/>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:3">
       <c r="B456" s="11"/>
       <c r="C456" s="10"/>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:3">
       <c r="B457" s="11"/>
       <c r="C457" s="10"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:3">
       <c r="C458" s="10"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:3">
       <c r="C459" s="10"/>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:3">
       <c r="C460" s="10"/>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:3">
       <c r="C461" s="10"/>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:3">
       <c r="C462" s="10"/>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:3">
       <c r="C463" s="10"/>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:3">
       <c r="C464" s="10"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3">
       <c r="C465" s="10"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3">
       <c r="C466" s="10"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3">
       <c r="C467" s="10"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3">
       <c r="C468" s="10"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3">
       <c r="C469" s="10"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3">
       <c r="C470" s="10"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3">
       <c r="C471" s="10"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3">
       <c r="C472" s="10"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3">
       <c r="C473" s="10"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3">
       <c r="C474" s="10"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3">
       <c r="C475" s="10"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3">
       <c r="C476" s="10"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3">
       <c r="C477" s="10"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3">
       <c r="C478" s="10"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3">
       <c r="C479" s="10"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3">
       <c r="C480" s="10"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3">
       <c r="C481" s="10"/>
     </row>
   </sheetData>
